--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9891273496630434</v>
+        <v>1.014229784657506</v>
       </c>
       <c r="D2">
-        <v>1.00844251587314</v>
+        <v>1.028362595664784</v>
       </c>
       <c r="E2">
-        <v>0.9963096837736598</v>
+        <v>1.02627181876596</v>
       </c>
       <c r="F2">
-        <v>0.9912203792341368</v>
+        <v>1.032926048634859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039680338849656</v>
+        <v>1.047063237482909</v>
       </c>
       <c r="J2">
-        <v>1.011638195353816</v>
+        <v>1.035993058490443</v>
       </c>
       <c r="K2">
-        <v>1.019785472837889</v>
+        <v>1.039440445029235</v>
       </c>
       <c r="L2">
-        <v>1.007820671114457</v>
+        <v>1.037376887757413</v>
       </c>
       <c r="M2">
-        <v>1.002803398575053</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.043944965418972</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9969900802805732</v>
+        <v>1.021667051233912</v>
       </c>
       <c r="D3">
-        <v>1.014436647119088</v>
+        <v>1.034038133360657</v>
       </c>
       <c r="E3">
-        <v>1.002889034470428</v>
+        <v>1.032685903471028</v>
       </c>
       <c r="F3">
-        <v>0.9996229149282625</v>
+        <v>1.039740096978456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042469262625986</v>
+        <v>1.04942729897781</v>
       </c>
       <c r="J3">
-        <v>1.017563136417587</v>
+        <v>1.041583985846509</v>
       </c>
       <c r="K3">
-        <v>1.024888081503507</v>
+        <v>1.044253253976911</v>
       </c>
       <c r="L3">
-        <v>1.0134850825446</v>
+        <v>1.042916969579233</v>
       </c>
       <c r="M3">
-        <v>1.010260622903083</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.049888544042825</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001910842517173</v>
+        <v>1.02633865252074</v>
       </c>
       <c r="D4">
-        <v>1.018189726409479</v>
+        <v>1.037605105619825</v>
       </c>
       <c r="E4">
-        <v>1.00701232965059</v>
+        <v>1.036720746356272</v>
       </c>
       <c r="F4">
-        <v>1.004887514863202</v>
+        <v>1.044027551390119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044198941639197</v>
+        <v>1.050900210459012</v>
       </c>
       <c r="J4">
-        <v>1.021265794729277</v>
+        <v>1.045091793960048</v>
       </c>
       <c r="K4">
-        <v>1.028073464482295</v>
+        <v>1.04726990460342</v>
       </c>
       <c r="L4">
-        <v>1.017026852403787</v>
+        <v>1.046395298732924</v>
       </c>
       <c r="M4">
-        <v>1.014927307636997</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.053622126973961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003941984706747</v>
+        <v>1.028270741752995</v>
       </c>
       <c r="D5">
-        <v>1.019739181996411</v>
+        <v>1.039080706585288</v>
       </c>
       <c r="E5">
-        <v>1.008715567142738</v>
+        <v>1.038390820173787</v>
       </c>
       <c r="F5">
-        <v>1.007062036006723</v>
+        <v>1.045802433373153</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044909058336384</v>
+        <v>1.051506429187786</v>
       </c>
       <c r="J5">
-        <v>1.022792784889225</v>
+        <v>1.046541523215364</v>
       </c>
       <c r="K5">
-        <v>1.029386291644382</v>
+        <v>1.04851591166616</v>
       </c>
       <c r="L5">
-        <v>1.018487938011454</v>
+        <v>1.047833417233084</v>
       </c>
       <c r="M5">
-        <v>1.016853488099998</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.055166240920111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004280886928628</v>
+        <v>1.028593331412343</v>
       </c>
       <c r="D6">
-        <v>1.019997727475039</v>
+        <v>1.03932709761206</v>
       </c>
       <c r="E6">
-        <v>1.008999829007238</v>
+        <v>1.038669738788162</v>
       </c>
       <c r="F6">
-        <v>1.007424947227847</v>
+        <v>1.046098870799726</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045027315449406</v>
+        <v>1.051607470691684</v>
       </c>
       <c r="J6">
-        <v>1.023047486217505</v>
+        <v>1.04678351325786</v>
       </c>
       <c r="K6">
-        <v>1.029605220702119</v>
+        <v>1.048723852408465</v>
       </c>
       <c r="L6">
-        <v>1.018731672342131</v>
+        <v>1.04807350263713</v>
       </c>
       <c r="M6">
-        <v>1.017174871656602</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.055424048732143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001938127235122</v>
+        <v>1.026364592004523</v>
       </c>
       <c r="D7">
-        <v>1.01821053951598</v>
+        <v>1.037624915155798</v>
       </c>
       <c r="E7">
-        <v>1.0070352046834</v>
+        <v>1.036743162945875</v>
       </c>
       <c r="F7">
-        <v>1.004916719848352</v>
+        <v>1.044051373775337</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04420849608056</v>
+        <v>1.050908361075633</v>
       </c>
       <c r="J7">
-        <v>1.021286312531455</v>
+        <v>1.045111261650514</v>
       </c>
       <c r="K7">
-        <v>1.028091107976646</v>
+        <v>1.047286639544879</v>
       </c>
       <c r="L7">
-        <v>1.017046482912191</v>
+        <v>1.046414608252688</v>
       </c>
       <c r="M7">
-        <v>1.01495318274445</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.053642857864244</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9918206969144746</v>
+        <v>1.016773567176535</v>
       </c>
       <c r="D8">
-        <v>1.010495333356885</v>
+        <v>1.030303326019566</v>
       </c>
       <c r="E8">
-        <v>0.9985621372244434</v>
+        <v>1.028464331263588</v>
       </c>
       <c r="F8">
-        <v>0.9940973706647526</v>
+        <v>1.035255070929362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040638955366123</v>
+        <v>1.047874322026397</v>
       </c>
       <c r="J8">
-        <v>1.013668853439731</v>
+        <v>1.037906145510474</v>
       </c>
       <c r="K8">
-        <v>1.021534990925295</v>
+        <v>1.041087887299339</v>
       </c>
       <c r="L8">
-        <v>1.009761620565963</v>
+        <v>1.039272059503617</v>
       </c>
       <c r="M8">
-        <v>1.005357894946822</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.045977761722899</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9725913805797456</v>
+        <v>0.998702098424352</v>
       </c>
       <c r="D9">
-        <v>0.9958524463794121</v>
+        <v>1.016529491163162</v>
       </c>
       <c r="E9">
-        <v>0.982510496745835</v>
+        <v>1.012918094684254</v>
       </c>
       <c r="F9">
-        <v>0.9735825478289185</v>
+        <v>1.018744964985254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033729533952741</v>
+        <v>1.042063013595558</v>
       </c>
       <c r="J9">
-        <v>0.999150570173049</v>
+        <v>1.024300772338541</v>
       </c>
       <c r="K9">
-        <v>1.009013175086332</v>
+        <v>1.029359962936249</v>
       </c>
       <c r="L9">
-        <v>0.9958938489294962</v>
+        <v>1.025805004850159</v>
       </c>
       <c r="M9">
-        <v>0.9871192822620576</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.03154106658571</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9586329453021744</v>
+        <v>0.9857216825653912</v>
       </c>
       <c r="D10">
-        <v>0.9852477604214028</v>
+        <v>1.006659417297431</v>
       </c>
       <c r="E10">
-        <v>0.9709036916878899</v>
+        <v>1.001794850847809</v>
       </c>
       <c r="F10">
-        <v>0.9587232222320718</v>
+        <v>1.006936942421014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028633851107745</v>
+        <v>1.037829154506399</v>
       </c>
       <c r="J10">
-        <v>0.9885897103688019</v>
+        <v>1.014513481021732</v>
       </c>
       <c r="K10">
-        <v>0.9998885793700567</v>
+        <v>1.020909465964735</v>
       </c>
       <c r="L10">
-        <v>0.9858189416596438</v>
+        <v>1.016131774151213</v>
       </c>
       <c r="M10">
-        <v>0.9738799991393176</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.021182067698537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9522654367335446</v>
+        <v>0.9798415807998498</v>
       </c>
       <c r="D11">
-        <v>0.9804186852763177</v>
+        <v>1.002196102395365</v>
       </c>
       <c r="E11">
-        <v>0.9656220656784817</v>
+        <v>0.9967682437089896</v>
       </c>
       <c r="F11">
-        <v>0.9519521319612636</v>
+        <v>1.001601918563966</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026291637085186</v>
+        <v>1.035898245913865</v>
       </c>
       <c r="J11">
-        <v>0.9837682842368196</v>
+        <v>1.0100777027721</v>
       </c>
       <c r="K11">
-        <v>0.9957195716482768</v>
+        <v>1.017076721938683</v>
       </c>
       <c r="L11">
-        <v>0.9812227857212827</v>
+        <v>1.011751364655456</v>
       </c>
       <c r="M11">
-        <v>0.9678408422126376</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.016493688145657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9498462682998469</v>
+        <v>0.9776146884830366</v>
       </c>
       <c r="D12">
-        <v>0.978585552484061</v>
+        <v>1.000507159710689</v>
       </c>
       <c r="E12">
-        <v>0.9636176622656296</v>
+        <v>0.9948666008785532</v>
       </c>
       <c r="F12">
-        <v>0.9493807112431323</v>
+        <v>0.9995837413062826</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025399251392107</v>
+        <v>1.035165143803442</v>
       </c>
       <c r="J12">
-        <v>0.9819360798027593</v>
+        <v>1.008397607270994</v>
       </c>
       <c r="K12">
-        <v>0.994134849943723</v>
+        <v>1.015624649786855</v>
       </c>
       <c r="L12">
-        <v>0.9794767382680556</v>
+        <v>1.010092813997569</v>
       </c>
       <c r="M12">
-        <v>0.9655464933460479</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.014718920523113</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9503677275640796</v>
+        <v>0.9780943655924607</v>
       </c>
       <c r="D13">
-        <v>0.9789806154843167</v>
+        <v>1.000870894987972</v>
       </c>
       <c r="E13">
-        <v>0.9640496136522936</v>
+        <v>0.9952761243958982</v>
       </c>
       <c r="F13">
-        <v>0.9499349409123047</v>
+        <v>1.000018354477534</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025591719355625</v>
+        <v>1.035323136310289</v>
       </c>
       <c r="J13">
-        <v>0.9823310340357817</v>
+        <v>1.008759509661117</v>
       </c>
       <c r="K13">
-        <v>0.9944764754297998</v>
+        <v>1.015937451121723</v>
       </c>
       <c r="L13">
-        <v>0.979853094757955</v>
+        <v>1.010450049255972</v>
       </c>
       <c r="M13">
-        <v>0.9660410437048861</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.015101170123113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9520666032478856</v>
+        <v>0.979658401116144</v>
       </c>
       <c r="D14">
-        <v>0.9802679855498807</v>
+        <v>1.002057143883785</v>
       </c>
       <c r="E14">
-        <v>0.9654572757779915</v>
+        <v>0.9966117763714198</v>
       </c>
       <c r="F14">
-        <v>0.9517407631043157</v>
+        <v>1.001435859903835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026218341416827</v>
+        <v>1.035837978904871</v>
       </c>
       <c r="J14">
-        <v>0.9836177016273393</v>
+        <v>1.00993950458995</v>
       </c>
       <c r="K14">
-        <v>0.9955893374985959</v>
+        <v>1.016957287561706</v>
       </c>
       <c r="L14">
-        <v>0.981079272652854</v>
+        <v>1.011614926912458</v>
       </c>
       <c r="M14">
-        <v>0.9676522661510393</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.016347682102498</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9531060059734382</v>
+        <v>0.9806162673585301</v>
       </c>
       <c r="D15">
-        <v>0.98105583336866</v>
+        <v>1.002783830641686</v>
       </c>
       <c r="E15">
-        <v>0.9663188068256522</v>
+        <v>0.9974300439816927</v>
       </c>
       <c r="F15">
-        <v>0.952845738066021</v>
+        <v>1.002304292462667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026601393247891</v>
+        <v>1.036153047728295</v>
       </c>
       <c r="J15">
-        <v>0.9844048561977894</v>
+        <v>1.010662150725192</v>
       </c>
       <c r="K15">
-        <v>0.9962701049244674</v>
+        <v>1.017581801441646</v>
       </c>
       <c r="L15">
-        <v>0.9818294945634456</v>
+        <v>1.0123283910413</v>
       </c>
       <c r="M15">
-        <v>0.9686380512030571</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.017111196905037</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590482796700547</v>
+        <v>0.9861061472983178</v>
       </c>
       <c r="D16">
-        <v>0.9855629446597679</v>
+        <v>1.006951425889471</v>
       </c>
       <c r="E16">
-        <v>0.9712484871307199</v>
+        <v>1.002123777985315</v>
       </c>
       <c r="F16">
-        <v>0.9591650308917415</v>
+        <v>1.007286072010139</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028786273173081</v>
+        <v>1.037955145993217</v>
       </c>
       <c r="J16">
-        <v>0.9889041311446465</v>
+        <v>1.014803476165872</v>
       </c>
       <c r="K16">
-        <v>1.000160390019832</v>
+        <v>1.021159981954012</v>
       </c>
       <c r="L16">
-        <v>0.9861187453319807</v>
+        <v>1.016418227210645</v>
       </c>
       <c r="M16">
-        <v>0.9742739242988503</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.021488713646636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.962685565137208</v>
+        <v>0.9894778165634762</v>
       </c>
       <c r="D17">
-        <v>0.9883241534258199</v>
+        <v>1.009513179601855</v>
       </c>
       <c r="E17">
-        <v>0.9742695286432046</v>
+        <v>1.005009790691481</v>
       </c>
       <c r="F17">
-        <v>0.9630349910981406</v>
+        <v>1.010349457082009</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030119135239697</v>
+        <v>1.039058611916136</v>
       </c>
       <c r="J17">
-        <v>0.9916572540868698</v>
+        <v>1.017346439532689</v>
       </c>
       <c r="K17">
-        <v>1.002540047213106</v>
+        <v>1.023356439306507</v>
       </c>
       <c r="L17">
-        <v>0.988744265847733</v>
+        <v>1.018930546639943</v>
       </c>
       <c r="M17">
-        <v>0.9777237546562599</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.024178424012339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647763336869801</v>
+        <v>0.9914196963328299</v>
       </c>
       <c r="D18">
-        <v>0.9899121183433891</v>
+        <v>1.010989314518423</v>
       </c>
       <c r="E18">
-        <v>0.976007280569269</v>
+        <v>1.006673093887046</v>
       </c>
       <c r="F18">
-        <v>0.965260197328906</v>
+        <v>1.012115083911849</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03088362248379</v>
+        <v>1.039692915553527</v>
       </c>
       <c r="J18">
-        <v>0.9932394257791319</v>
+        <v>1.018810822685619</v>
       </c>
       <c r="K18">
-        <v>1.003907283779827</v>
+        <v>1.024621016389303</v>
       </c>
       <c r="L18">
-        <v>0.9902534230416893</v>
+        <v>1.02037762668042</v>
       </c>
       <c r="M18">
-        <v>0.9797067964614904</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.0257279214418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9654841584807062</v>
+        <v>0.9920777344785549</v>
       </c>
       <c r="D19">
-        <v>0.990449844992587</v>
+        <v>1.011489643110166</v>
       </c>
       <c r="E19">
-        <v>0.9765957911076789</v>
+        <v>1.007236918757902</v>
       </c>
       <c r="F19">
-        <v>0.9660136539836753</v>
+        <v>1.012713611313685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031142152114477</v>
+        <v>1.039907648560806</v>
       </c>
       <c r="J19">
-        <v>0.9937750002344046</v>
+        <v>1.019307013654204</v>
       </c>
       <c r="K19">
-        <v>1.004370047325745</v>
+        <v>1.02504945847443</v>
       </c>
       <c r="L19">
-        <v>0.9907643342879372</v>
+        <v>1.020868012336551</v>
       </c>
       <c r="M19">
-        <v>0.9803781541634293</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.026253055102241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9622985408420934</v>
+        <v>0.98911865488105</v>
       </c>
       <c r="D20">
-        <v>0.988030265025421</v>
+        <v>1.009240216797565</v>
       </c>
       <c r="E20">
-        <v>0.9739479481499338</v>
+        <v>1.004702243848695</v>
       </c>
       <c r="F20">
-        <v>0.9626231372715341</v>
+        <v>1.010022998497153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029977484498701</v>
+        <v>1.038941193700712</v>
       </c>
       <c r="J20">
-        <v>0.9913643460123409</v>
+        <v>1.017075575535612</v>
       </c>
       <c r="K20">
-        <v>1.002286904619709</v>
+        <v>1.023122511020049</v>
       </c>
       <c r="L20">
-        <v>0.988464900384232</v>
+        <v>1.018662910846816</v>
       </c>
       <c r="M20">
-        <v>0.9773566736432826</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.023891865772485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9515678648507335</v>
+        <v>0.9791990448876716</v>
       </c>
       <c r="D21">
-        <v>0.9798900079514135</v>
+        <v>1.001708703357513</v>
       </c>
       <c r="E21">
-        <v>0.9650439660662091</v>
+        <v>0.9962194392769098</v>
       </c>
       <c r="F21">
-        <v>0.951210599158719</v>
+        <v>1.001019475141076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026034452243729</v>
+        <v>1.035686819378885</v>
       </c>
       <c r="J21">
-        <v>0.9832399855807613</v>
+        <v>1.009592945000237</v>
       </c>
       <c r="K21">
-        <v>0.9952626558374777</v>
+        <v>1.016657775979586</v>
       </c>
       <c r="L21">
-        <v>0.9807192985882017</v>
+        <v>1.011272791271583</v>
       </c>
       <c r="M21">
-        <v>0.9671792579118869</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015981558960173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.944505338192498</v>
+        <v>0.9727125350983542</v>
       </c>
       <c r="D22">
-        <v>0.9745416335485372</v>
+        <v>0.9967920418009797</v>
       </c>
       <c r="E22">
-        <v>0.959196817160775</v>
+        <v>0.9906843783191397</v>
       </c>
       <c r="F22">
-        <v>0.9437055964914169</v>
+        <v>0.995145481240144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023424584582179</v>
+        <v>1.033548087168299</v>
       </c>
       <c r="J22">
-        <v>0.9778904044390359</v>
+        <v>1.004698945089338</v>
       </c>
       <c r="K22">
-        <v>0.9906348773623417</v>
+        <v>1.012427317968235</v>
       </c>
       <c r="L22">
-        <v>0.9756223723247346</v>
+        <v>1.006442666234162</v>
       </c>
       <c r="M22">
-        <v>0.9604812975588543</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010813724437385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9482812836218388</v>
+        <v>0.9761762189090246</v>
       </c>
       <c r="D23">
-        <v>0.9774001531476503</v>
+        <v>0.9994166014249489</v>
       </c>
       <c r="E23">
-        <v>0.9623216501317254</v>
+        <v>0.9936388209562395</v>
       </c>
       <c r="F23">
-        <v>0.9477175324371784</v>
+        <v>0.9982807611014387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024821264937752</v>
+        <v>1.034691091882354</v>
       </c>
       <c r="J23">
-        <v>0.9807507065749635</v>
+        <v>1.007312306676613</v>
       </c>
       <c r="K23">
-        <v>0.9931094708311173</v>
+        <v>1.014686544727937</v>
       </c>
       <c r="L23">
-        <v>0.9783472664277659</v>
+        <v>1.009021595408472</v>
       </c>
       <c r="M23">
-        <v>0.9640622793251298</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013572750388666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9624735152398092</v>
+        <v>0.9892810208151069</v>
       </c>
       <c r="D24">
-        <v>0.988163130110613</v>
+        <v>1.009363612658855</v>
       </c>
       <c r="E24">
-        <v>0.9740933315391285</v>
+        <v>1.004841272798468</v>
       </c>
       <c r="F24">
-        <v>0.9628093349905923</v>
+        <v>1.010170576341781</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030041530239584</v>
+        <v>1.038994278678856</v>
       </c>
       <c r="J24">
-        <v>0.9914967714427736</v>
+        <v>1.017198025472803</v>
       </c>
       <c r="K24">
-        <v>1.002401352817004</v>
+        <v>1.023228264205496</v>
       </c>
       <c r="L24">
-        <v>0.9885912021409904</v>
+        <v>1.018783900339069</v>
       </c>
       <c r="M24">
-        <v>0.9775226315694745</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.024021408741813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9777473390562262</v>
+        <v>1.003526729335815</v>
       </c>
       <c r="D25">
-        <v>0.9997752928825598</v>
+        <v>1.020203443385053</v>
       </c>
       <c r="E25">
-        <v>0.9868075239150352</v>
+        <v>1.017061744806849</v>
       </c>
       <c r="F25">
-        <v>0.9790776584811774</v>
+        <v>1.023144657143269</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035596120859257</v>
+        <v>1.043624997910173</v>
       </c>
       <c r="J25">
-        <v>1.003047523463227</v>
+        <v>1.027935985106986</v>
       </c>
       <c r="K25">
-        <v>1.012377098141291</v>
+        <v>1.03249601844379</v>
       </c>
       <c r="L25">
-        <v>0.9996141475800611</v>
+        <v>1.029400849414003</v>
       </c>
       <c r="M25">
-        <v>0.9920096888352353</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.035394000611745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014229784657506</v>
+        <v>1.009018461409866</v>
       </c>
       <c r="D2">
-        <v>1.028362595664784</v>
+        <v>1.023474255475172</v>
       </c>
       <c r="E2">
-        <v>1.02627181876596</v>
+        <v>1.020695760063365</v>
       </c>
       <c r="F2">
-        <v>1.032926048634859</v>
+        <v>1.023474635808483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047063237482909</v>
+        <v>1.044481305048433</v>
       </c>
       <c r="J2">
-        <v>1.035993058490443</v>
+        <v>1.030932737570607</v>
       </c>
       <c r="K2">
-        <v>1.039440445029235</v>
+        <v>1.034615963725701</v>
       </c>
       <c r="L2">
-        <v>1.037376887757413</v>
+        <v>1.031874107218858</v>
       </c>
       <c r="M2">
-        <v>1.043944965418972</v>
+        <v>1.034616339060773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021667051233912</v>
+        <v>1.013023119687797</v>
       </c>
       <c r="D3">
-        <v>1.034038133360657</v>
+        <v>1.026269448706086</v>
       </c>
       <c r="E3">
-        <v>1.032685903471028</v>
+        <v>1.024154651460774</v>
       </c>
       <c r="F3">
-        <v>1.039740096978456</v>
+        <v>1.02756909923861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04942729897781</v>
+        <v>1.045518343705585</v>
       </c>
       <c r="J3">
-        <v>1.041583985846509</v>
+        <v>1.033164949258793</v>
       </c>
       <c r="K3">
-        <v>1.044253253976911</v>
+        <v>1.036576888085124</v>
       </c>
       <c r="L3">
-        <v>1.042916969579233</v>
+        <v>1.034487522936387</v>
       </c>
       <c r="M3">
-        <v>1.049888544042825</v>
+        <v>1.037860973712062</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02633865252074</v>
+        <v>1.015566239069064</v>
       </c>
       <c r="D4">
-        <v>1.037605105619825</v>
+        <v>1.028047360393877</v>
       </c>
       <c r="E4">
-        <v>1.036720746356272</v>
+        <v>1.026356956427618</v>
       </c>
       <c r="F4">
-        <v>1.044027551390119</v>
+        <v>1.030176542569962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050900210459012</v>
+        <v>1.046168570066543</v>
       </c>
       <c r="J4">
-        <v>1.045091793960048</v>
+        <v>1.034579969855451</v>
       </c>
       <c r="K4">
-        <v>1.04726990460342</v>
+        <v>1.037818664861876</v>
       </c>
       <c r="L4">
-        <v>1.046395298732924</v>
+        <v>1.036147352086141</v>
       </c>
       <c r="M4">
-        <v>1.053622126973961</v>
+        <v>1.039923910133555</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028270741752995</v>
+        <v>1.016624198580857</v>
       </c>
       <c r="D5">
-        <v>1.039080706585288</v>
+        <v>1.028787626550548</v>
       </c>
       <c r="E5">
-        <v>1.038390820173787</v>
+        <v>1.027274489865018</v>
       </c>
       <c r="F5">
-        <v>1.045802433373153</v>
+        <v>1.031262996368184</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051506429187786</v>
+        <v>1.046437038311499</v>
       </c>
       <c r="J5">
-        <v>1.046541523215364</v>
+        <v>1.035167997229858</v>
       </c>
       <c r="K5">
-        <v>1.04851591166616</v>
+        <v>1.038334383770194</v>
       </c>
       <c r="L5">
-        <v>1.047833417233084</v>
+        <v>1.03683787736707</v>
       </c>
       <c r="M5">
-        <v>1.055166240920111</v>
+        <v>1.040782676950546</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028593331412343</v>
+        <v>1.016801189987855</v>
       </c>
       <c r="D6">
-        <v>1.03932709761206</v>
+        <v>1.028911505751199</v>
       </c>
       <c r="E6">
-        <v>1.038669738788162</v>
+        <v>1.027428067552884</v>
       </c>
       <c r="F6">
-        <v>1.046098870799726</v>
+        <v>1.031444856284627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051607470691684</v>
+        <v>1.046481831403514</v>
       </c>
       <c r="J6">
-        <v>1.04678351325786</v>
+        <v>1.035266333283608</v>
       </c>
       <c r="K6">
-        <v>1.048723852408465</v>
+        <v>1.038420608841523</v>
       </c>
       <c r="L6">
-        <v>1.04807350263713</v>
+        <v>1.036953399365793</v>
       </c>
       <c r="M6">
-        <v>1.055424048732143</v>
+        <v>1.04092637709846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026364592004523</v>
+        <v>1.015580418989006</v>
       </c>
       <c r="D7">
-        <v>1.037624915155798</v>
+        <v>1.028057279775277</v>
       </c>
       <c r="E7">
-        <v>1.036743162945875</v>
+        <v>1.026369248889005</v>
       </c>
       <c r="F7">
-        <v>1.044051373775337</v>
+        <v>1.030191097569559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050908361075633</v>
+        <v>1.046172176432219</v>
       </c>
       <c r="J7">
-        <v>1.045111261650514</v>
+        <v>1.034587853772776</v>
       </c>
       <c r="K7">
-        <v>1.047286639544879</v>
+        <v>1.037825580568512</v>
       </c>
       <c r="L7">
-        <v>1.046414608252688</v>
+        <v>1.036156607202205</v>
       </c>
       <c r="M7">
-        <v>1.053642857864244</v>
+        <v>1.039935418046226</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016773567176535</v>
+        <v>1.010382050003062</v>
       </c>
       <c r="D8">
-        <v>1.030303326019566</v>
+        <v>1.024425395739154</v>
       </c>
       <c r="E8">
-        <v>1.028464331263588</v>
+        <v>1.021872288506406</v>
       </c>
       <c r="F8">
-        <v>1.035255070929362</v>
+        <v>1.024867265962424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047874322026397</v>
+        <v>1.044836143507895</v>
       </c>
       <c r="J8">
-        <v>1.037906145510474</v>
+        <v>1.031693318418911</v>
       </c>
       <c r="K8">
-        <v>1.041087887299339</v>
+        <v>1.035284369632377</v>
       </c>
       <c r="L8">
-        <v>1.039272059503617</v>
+        <v>1.03276391721055</v>
       </c>
       <c r="M8">
-        <v>1.045977761722899</v>
+        <v>1.035720608867633</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998702098424352</v>
+        <v>1.000835891010607</v>
       </c>
       <c r="D9">
-        <v>1.016529491163162</v>
+        <v>1.017780636644234</v>
       </c>
       <c r="E9">
-        <v>1.012918094684254</v>
+        <v>1.013661329413552</v>
       </c>
       <c r="F9">
-        <v>1.018744964985254</v>
+        <v>1.015149314122708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042063013595558</v>
+        <v>1.042318066664929</v>
       </c>
       <c r="J9">
-        <v>1.024300772338541</v>
+        <v>1.026359166302459</v>
       </c>
       <c r="K9">
-        <v>1.029359962936249</v>
+        <v>1.030591675039968</v>
       </c>
       <c r="L9">
-        <v>1.025805004850159</v>
+        <v>1.026536582375432</v>
       </c>
       <c r="M9">
-        <v>1.03154106658571</v>
+        <v>1.028001294494905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9857216825653912</v>
+        <v>0.9941870464585498</v>
       </c>
       <c r="D10">
-        <v>1.006659417297431</v>
+        <v>1.013172467117778</v>
       </c>
       <c r="E10">
-        <v>1.001794850847809</v>
+        <v>1.007976430833415</v>
       </c>
       <c r="F10">
-        <v>1.006936942421014</v>
+        <v>1.008421642883358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037829154506399</v>
+        <v>1.040522620301948</v>
       </c>
       <c r="J10">
-        <v>1.014513481021732</v>
+        <v>1.022633209807195</v>
       </c>
       <c r="K10">
-        <v>1.020909465964735</v>
+        <v>1.027307892978754</v>
       </c>
       <c r="L10">
-        <v>1.016131774151213</v>
+        <v>1.022203146485037</v>
       </c>
       <c r="M10">
-        <v>1.021182067698537</v>
+        <v>1.022640488761734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9798415807998498</v>
+        <v>0.9912344483463883</v>
       </c>
       <c r="D11">
-        <v>1.002196102395365</v>
+        <v>1.011131527046834</v>
       </c>
       <c r="E11">
-        <v>0.9967682437089896</v>
+        <v>1.005460456735236</v>
       </c>
       <c r="F11">
-        <v>1.001601918563966</v>
+        <v>1.005444012233942</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035898245913865</v>
+        <v>1.039715908110094</v>
       </c>
       <c r="J11">
-        <v>1.0100777027721</v>
+        <v>1.020976486431219</v>
       </c>
       <c r="K11">
-        <v>1.017076721938683</v>
+        <v>1.025846528550923</v>
       </c>
       <c r="L11">
-        <v>1.011751364655456</v>
+        <v>1.02028012632908</v>
       </c>
       <c r="M11">
-        <v>1.016493688145657</v>
+        <v>1.020263987575256</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9776146884830366</v>
+        <v>0.9901261133078657</v>
       </c>
       <c r="D12">
-        <v>1.000507159710689</v>
+        <v>1.010366288828391</v>
       </c>
       <c r="E12">
-        <v>0.9948666008785532</v>
+        <v>1.004517350154214</v>
       </c>
       <c r="F12">
-        <v>0.9995837413062826</v>
+        <v>1.004327805164311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035165143803442</v>
+        <v>1.039411717587841</v>
       </c>
       <c r="J12">
-        <v>1.008397607270994</v>
+        <v>1.020354313139128</v>
       </c>
       <c r="K12">
-        <v>1.015624649786855</v>
+        <v>1.025297545895445</v>
       </c>
       <c r="L12">
-        <v>1.010092813997569</v>
+        <v>1.019558513599531</v>
       </c>
       <c r="M12">
-        <v>1.014718920523113</v>
+        <v>1.019372558310786</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9780943655924607</v>
+        <v>0.9903643894641362</v>
       </c>
       <c r="D13">
-        <v>1.000870894987972</v>
+        <v>1.010530763158045</v>
       </c>
       <c r="E13">
-        <v>0.9952761243958982</v>
+        <v>1.00472004371239</v>
       </c>
       <c r="F13">
-        <v>1.000018354477534</v>
+        <v>1.00456770436119</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035323136310289</v>
+        <v>1.039477175415779</v>
       </c>
       <c r="J13">
-        <v>1.008759509661117</v>
+        <v>1.020488083447251</v>
       </c>
       <c r="K13">
-        <v>1.015937451121723</v>
+        <v>1.025415587574172</v>
       </c>
       <c r="L13">
-        <v>1.010450049255972</v>
+        <v>1.019713638360605</v>
       </c>
       <c r="M13">
-        <v>1.015101170123113</v>
+        <v>1.019564172751378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.979658401116144</v>
+        <v>0.9911430731414019</v>
       </c>
       <c r="D14">
-        <v>1.002057143883785</v>
+        <v>1.011068419684749</v>
       </c>
       <c r="E14">
-        <v>0.9966117763714198</v>
+        <v>1.005382676259246</v>
       </c>
       <c r="F14">
-        <v>1.001435859903835</v>
+        <v>1.005351956872973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035837978904871</v>
+        <v>1.03969085713864</v>
       </c>
       <c r="J14">
-        <v>1.00993950458995</v>
+        <v>1.02092519762449</v>
       </c>
       <c r="K14">
-        <v>1.016957287561706</v>
+        <v>1.025801276699262</v>
       </c>
       <c r="L14">
-        <v>1.011614926912458</v>
+        <v>1.020220628751772</v>
       </c>
       <c r="M14">
-        <v>1.016347682102498</v>
+        <v>1.020190481396094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9806162673585301</v>
+        <v>0.9916212905624263</v>
       </c>
       <c r="D15">
-        <v>1.002783830641686</v>
+        <v>1.011398732077447</v>
       </c>
       <c r="E15">
-        <v>0.9974300439816927</v>
+        <v>1.005789799395292</v>
       </c>
       <c r="F15">
-        <v>1.002304292462667</v>
+        <v>1.005833796263156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036153047728295</v>
+        <v>1.039821907230678</v>
       </c>
       <c r="J15">
-        <v>1.010662150725192</v>
+        <v>1.021193609425836</v>
       </c>
       <c r="K15">
-        <v>1.017581801441646</v>
+        <v>1.026038087984752</v>
       </c>
       <c r="L15">
-        <v>1.0123283910413</v>
+        <v>1.020532022921443</v>
       </c>
       <c r="M15">
-        <v>1.017111196905037</v>
+        <v>1.020575207069164</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9861061472983178</v>
+        <v>0.9943814036947274</v>
       </c>
       <c r="D16">
-        <v>1.006951425889471</v>
+        <v>1.013306932598399</v>
       </c>
       <c r="E16">
-        <v>1.002123777985315</v>
+        <v>1.00814222913771</v>
       </c>
       <c r="F16">
-        <v>1.007286072010139</v>
+        <v>1.008617858101296</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037955145993217</v>
+        <v>1.040575530318534</v>
       </c>
       <c r="J16">
-        <v>1.014803476165872</v>
+        <v>1.022742224177399</v>
       </c>
       <c r="K16">
-        <v>1.021159981954012</v>
+        <v>1.027404027473348</v>
       </c>
       <c r="L16">
-        <v>1.016418227210645</v>
+        <v>1.022329762500583</v>
       </c>
       <c r="M16">
-        <v>1.021488713646636</v>
+        <v>1.022797012590303</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9894778165634762</v>
+        <v>0.9960926656484838</v>
       </c>
       <c r="D17">
-        <v>1.009513179601855</v>
+        <v>1.014491492077364</v>
       </c>
       <c r="E17">
-        <v>1.005009790691481</v>
+        <v>1.009603018336806</v>
       </c>
       <c r="F17">
-        <v>1.010349457082009</v>
+        <v>1.010346618949146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039058611916136</v>
+        <v>1.0410403223158</v>
       </c>
       <c r="J17">
-        <v>1.017346439532689</v>
+        <v>1.023701829482695</v>
       </c>
       <c r="K17">
-        <v>1.023356439306507</v>
+        <v>1.028250115907074</v>
       </c>
       <c r="L17">
-        <v>1.018930546639943</v>
+        <v>1.023444741145656</v>
       </c>
       <c r="M17">
-        <v>1.024178424012339</v>
+        <v>1.024175634334169</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9914196963328299</v>
+        <v>0.9970837529357376</v>
       </c>
       <c r="D18">
-        <v>1.010989314518423</v>
+        <v>1.015178049354326</v>
       </c>
       <c r="E18">
-        <v>1.006673093887046</v>
+        <v>1.010449853200659</v>
       </c>
       <c r="F18">
-        <v>1.012115083911849</v>
+        <v>1.011348786826642</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039692915553527</v>
+        <v>1.041308613462547</v>
       </c>
       <c r="J18">
-        <v>1.018810822685619</v>
+        <v>1.024257387093149</v>
       </c>
       <c r="K18">
-        <v>1.024621016389303</v>
+        <v>1.028739833943945</v>
       </c>
       <c r="L18">
-        <v>1.02037762668042</v>
+        <v>1.024090613948792</v>
       </c>
       <c r="M18">
-        <v>1.0257279214418</v>
+        <v>1.024974459193134</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9920777344785549</v>
+        <v>0.9974205062686701</v>
       </c>
       <c r="D19">
-        <v>1.011489643110166</v>
+        <v>1.01541141405417</v>
       </c>
       <c r="E19">
-        <v>1.007236918757902</v>
+        <v>1.010737728357272</v>
       </c>
       <c r="F19">
-        <v>1.012713611313685</v>
+        <v>1.011689464847673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039907648560806</v>
+        <v>1.041399620707629</v>
       </c>
       <c r="J19">
-        <v>1.019307013654204</v>
+        <v>1.024446119782528</v>
       </c>
       <c r="K19">
-        <v>1.02504945847443</v>
+        <v>1.028906179100352</v>
       </c>
       <c r="L19">
-        <v>1.020868012336551</v>
+        <v>1.024310090020821</v>
       </c>
       <c r="M19">
-        <v>1.026253055102241</v>
+        <v>1.025245950066885</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.98911865488105</v>
+        <v>0.9959097978509838</v>
       </c>
       <c r="D20">
-        <v>1.009240216797565</v>
+        <v>1.014364854791024</v>
       </c>
       <c r="E20">
-        <v>1.004702243848695</v>
+        <v>1.009446832045382</v>
       </c>
       <c r="F20">
-        <v>1.010022998497153</v>
+        <v>1.010161782895276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038941193700712</v>
+        <v>1.040990746627769</v>
       </c>
       <c r="J20">
-        <v>1.017075575535612</v>
+        <v>1.023599305567426</v>
       </c>
       <c r="K20">
-        <v>1.023122511020049</v>
+        <v>1.028159732422492</v>
       </c>
       <c r="L20">
-        <v>1.018662910846816</v>
+        <v>1.023325579610288</v>
       </c>
       <c r="M20">
-        <v>1.023891865772485</v>
+        <v>1.024028272427316</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9791990448876716</v>
+        <v>0.9909140952532234</v>
       </c>
       <c r="D21">
-        <v>1.001708703357513</v>
+        <v>1.010910292857681</v>
       </c>
       <c r="E21">
-        <v>0.9962194392769098</v>
+        <v>1.005187787104904</v>
       </c>
       <c r="F21">
-        <v>1.001019475141076</v>
+        <v>1.005121299234828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035686819378885</v>
+        <v>1.039628059769787</v>
       </c>
       <c r="J21">
-        <v>1.009592945000237</v>
+        <v>1.020796668217719</v>
       </c>
       <c r="K21">
-        <v>1.016657775979586</v>
+        <v>1.025687873080145</v>
       </c>
       <c r="L21">
-        <v>1.011272791271583</v>
+        <v>1.020071537332444</v>
       </c>
       <c r="M21">
-        <v>1.015981558960173</v>
+        <v>1.020006292289514</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9727125350983542</v>
+        <v>0.987705636972351</v>
       </c>
       <c r="D22">
-        <v>0.9967920418009797</v>
+        <v>1.008696791039155</v>
       </c>
       <c r="E22">
-        <v>0.9906843783191397</v>
+        <v>1.002460209275245</v>
       </c>
       <c r="F22">
-        <v>0.995145481240144</v>
+        <v>1.001892969458696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033548087168299</v>
+        <v>1.038744929885378</v>
       </c>
       <c r="J22">
-        <v>1.004698945089338</v>
+        <v>1.018995089609111</v>
       </c>
       <c r="K22">
-        <v>1.012427317968235</v>
+        <v>1.024097909351771</v>
       </c>
       <c r="L22">
-        <v>1.006442666234162</v>
+        <v>1.017983085980685</v>
       </c>
       <c r="M22">
-        <v>1.010813724437385</v>
+        <v>1.017427019296371</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9761762189090246</v>
+        <v>0.9894130888148953</v>
       </c>
       <c r="D23">
-        <v>0.9994166014249489</v>
+        <v>1.009874245424166</v>
       </c>
       <c r="E23">
-        <v>0.9936388209562395</v>
+        <v>1.003911002512025</v>
       </c>
       <c r="F23">
-        <v>0.9982807611014387</v>
+        <v>1.003610149346135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034691091882354</v>
+        <v>1.039215642216927</v>
       </c>
       <c r="J23">
-        <v>1.007312306676613</v>
+        <v>1.019953977175434</v>
       </c>
       <c r="K23">
-        <v>1.014686544727937</v>
+        <v>1.024944256480693</v>
       </c>
       <c r="L23">
-        <v>1.009021595408472</v>
+        <v>1.019094352501245</v>
       </c>
       <c r="M23">
-        <v>1.013572750388666</v>
+        <v>1.018799264147749</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9892810208151069</v>
+        <v>0.9959924497238144</v>
       </c>
       <c r="D24">
-        <v>1.009363612658855</v>
+        <v>1.014422090232548</v>
       </c>
       <c r="E24">
-        <v>1.004841272798468</v>
+        <v>1.009517422007033</v>
       </c>
       <c r="F24">
-        <v>1.010170576341781</v>
+        <v>1.010245321442734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038994278678856</v>
+        <v>1.041013156433439</v>
       </c>
       <c r="J24">
-        <v>1.017198025472803</v>
+        <v>1.023645644559459</v>
       </c>
       <c r="K24">
-        <v>1.023228264205496</v>
+        <v>1.028200584527055</v>
       </c>
       <c r="L24">
-        <v>1.018783900339069</v>
+        <v>1.023379437386612</v>
       </c>
       <c r="M24">
-        <v>1.024021408741813</v>
+        <v>1.024094875286186</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003526729335815</v>
+        <v>1.003352050534388</v>
       </c>
       <c r="D25">
-        <v>1.020203443385053</v>
+        <v>1.019528851077744</v>
       </c>
       <c r="E25">
-        <v>1.017061744806849</v>
+        <v>1.015819846110021</v>
       </c>
       <c r="F25">
-        <v>1.023144657143269</v>
+        <v>1.017703793530517</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043624997910173</v>
+        <v>1.042989117893724</v>
       </c>
       <c r="J25">
-        <v>1.027935985106986</v>
+        <v>1.027767129023038</v>
       </c>
       <c r="K25">
-        <v>1.03249601844379</v>
+        <v>1.031831386345077</v>
       </c>
       <c r="L25">
-        <v>1.029400849414003</v>
+        <v>1.028177444574089</v>
       </c>
       <c r="M25">
-        <v>1.035394000611745</v>
+        <v>1.030033359504977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009018461409866</v>
+        <v>1.035492529207973</v>
       </c>
       <c r="D2">
-        <v>1.023474255475172</v>
+        <v>1.037378459628777</v>
       </c>
       <c r="E2">
-        <v>1.020695760063365</v>
+        <v>1.043347320323245</v>
       </c>
       <c r="F2">
-        <v>1.023474635808483</v>
+        <v>1.051433521651894</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044481305048433</v>
+        <v>1.036698782795838</v>
       </c>
       <c r="J2">
-        <v>1.030932737570607</v>
+        <v>1.040606006761255</v>
       </c>
       <c r="K2">
-        <v>1.034615963725701</v>
+        <v>1.040169514315052</v>
       </c>
       <c r="L2">
-        <v>1.031874107218858</v>
+        <v>1.046121442126428</v>
       </c>
       <c r="M2">
-        <v>1.034616339060773</v>
+        <v>1.054185036440427</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013023119687797</v>
+        <v>1.036345533137149</v>
       </c>
       <c r="D3">
-        <v>1.026269448706086</v>
+        <v>1.037993403367822</v>
       </c>
       <c r="E3">
-        <v>1.024154651460774</v>
+        <v>1.044140073716059</v>
       </c>
       <c r="F3">
-        <v>1.02756909923861</v>
+        <v>1.052386945588968</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045518343705585</v>
+        <v>1.036872791389277</v>
       </c>
       <c r="J3">
-        <v>1.033164949258793</v>
+        <v>1.041103068719073</v>
       </c>
       <c r="K3">
-        <v>1.036576888085124</v>
+        <v>1.040594769499334</v>
       </c>
       <c r="L3">
-        <v>1.034487522936387</v>
+        <v>1.046725259811469</v>
       </c>
       <c r="M3">
-        <v>1.037860973712062</v>
+        <v>1.054950743636264</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015566239069064</v>
+        <v>1.036898069220728</v>
       </c>
       <c r="D4">
-        <v>1.028047360393877</v>
+        <v>1.03839175007892</v>
       </c>
       <c r="E4">
-        <v>1.026356956427618</v>
+        <v>1.044653998068479</v>
       </c>
       <c r="F4">
-        <v>1.030176542569962</v>
+        <v>1.053005191315282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046168570066543</v>
+        <v>1.036984456721124</v>
       </c>
       <c r="J4">
-        <v>1.034579969855451</v>
+        <v>1.041424628648928</v>
       </c>
       <c r="K4">
-        <v>1.037818664861876</v>
+        <v>1.040869681295405</v>
       </c>
       <c r="L4">
-        <v>1.036147352086141</v>
+        <v>1.0471162729038</v>
       </c>
       <c r="M4">
-        <v>1.039923910133555</v>
+        <v>1.055446898853028</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016624198580857</v>
+        <v>1.037130494042757</v>
       </c>
       <c r="D5">
-        <v>1.028787626550548</v>
+        <v>1.038559317984575</v>
       </c>
       <c r="E5">
-        <v>1.027274489865018</v>
+        <v>1.04487027995685</v>
       </c>
       <c r="F5">
-        <v>1.031262996368184</v>
+        <v>1.053265415280732</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046437038311499</v>
+        <v>1.037031177565089</v>
       </c>
       <c r="J5">
-        <v>1.035167997229858</v>
+        <v>1.041559793909641</v>
       </c>
       <c r="K5">
-        <v>1.038334383770194</v>
+        <v>1.040985191581794</v>
       </c>
       <c r="L5">
-        <v>1.03683787736707</v>
+        <v>1.047280725910375</v>
       </c>
       <c r="M5">
-        <v>1.040782676950546</v>
+        <v>1.055655646497785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016801189987855</v>
+        <v>1.037169527279693</v>
       </c>
       <c r="D6">
-        <v>1.028911505751199</v>
+        <v>1.038587459361664</v>
       </c>
       <c r="E6">
-        <v>1.027428067552884</v>
+        <v>1.044906607963213</v>
       </c>
       <c r="F6">
-        <v>1.031444856284627</v>
+        <v>1.053309126360177</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046481831403514</v>
+        <v>1.037039009089341</v>
       </c>
       <c r="J6">
-        <v>1.035266333283608</v>
+        <v>1.041582487629904</v>
       </c>
       <c r="K6">
-        <v>1.038420608841523</v>
+        <v>1.041004582560401</v>
       </c>
       <c r="L6">
-        <v>1.036953399365793</v>
+        <v>1.047308342423833</v>
       </c>
       <c r="M6">
-        <v>1.04092637709846</v>
+        <v>1.055690705717544</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015580418989006</v>
+        <v>1.03690117434966</v>
       </c>
       <c r="D7">
-        <v>1.028057279775277</v>
+        <v>1.038393988727059</v>
       </c>
       <c r="E7">
-        <v>1.026369248889005</v>
+        <v>1.044656887143564</v>
       </c>
       <c r="F7">
-        <v>1.030191097569559</v>
+        <v>1.053008667211149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046172176432219</v>
+        <v>1.036985081885402</v>
       </c>
       <c r="J7">
-        <v>1.034587853772776</v>
+        <v>1.041426434808087</v>
       </c>
       <c r="K7">
-        <v>1.037825580568512</v>
+        <v>1.040871224997073</v>
       </c>
       <c r="L7">
-        <v>1.036156607202205</v>
+        <v>1.04711847005524</v>
       </c>
       <c r="M7">
-        <v>1.039935418046226</v>
+        <v>1.055449687506834</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010382050003062</v>
+        <v>1.03578068373358</v>
       </c>
       <c r="D8">
-        <v>1.024425395739154</v>
+        <v>1.037586191259892</v>
       </c>
       <c r="E8">
-        <v>1.021872288506406</v>
+        <v>1.043615035262156</v>
       </c>
       <c r="F8">
-        <v>1.024867265962424</v>
+        <v>1.051755462050887</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044836143507895</v>
+        <v>1.036757781957621</v>
       </c>
       <c r="J8">
-        <v>1.031693318418911</v>
+        <v>1.04077400544365</v>
       </c>
       <c r="K8">
-        <v>1.035284369632377</v>
+        <v>1.040313283754073</v>
       </c>
       <c r="L8">
-        <v>1.03276391721055</v>
+        <v>1.046325441652573</v>
       </c>
       <c r="M8">
-        <v>1.035720608867633</v>
+        <v>1.054443666671308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000835891010607</v>
+        <v>1.033810787578096</v>
       </c>
       <c r="D9">
-        <v>1.017780636644234</v>
+        <v>1.0361661694757</v>
       </c>
       <c r="E9">
-        <v>1.013661329413552</v>
+        <v>1.041786586476362</v>
       </c>
       <c r="F9">
-        <v>1.015149314122708</v>
+        <v>1.049557316380466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042318066664929</v>
+        <v>1.036350157612704</v>
       </c>
       <c r="J9">
-        <v>1.026359166302459</v>
+        <v>1.039623840282886</v>
       </c>
       <c r="K9">
-        <v>1.030591675039968</v>
+        <v>1.039328205282475</v>
       </c>
       <c r="L9">
-        <v>1.026536582375432</v>
+        <v>1.044930402497078</v>
       </c>
       <c r="M9">
-        <v>1.028001294494905</v>
+        <v>1.052676293576075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941870464585498</v>
+        <v>1.032500673915797</v>
       </c>
       <c r="D10">
-        <v>1.013172467117778</v>
+        <v>1.03522188756141</v>
       </c>
       <c r="E10">
-        <v>1.007976430833415</v>
+        <v>1.040572716346617</v>
       </c>
       <c r="F10">
-        <v>1.008421642883358</v>
+        <v>1.048098822853909</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040522620301948</v>
+        <v>1.036073678063231</v>
       </c>
       <c r="J10">
-        <v>1.022633209807195</v>
+        <v>1.038856798115761</v>
       </c>
       <c r="K10">
-        <v>1.027307892978754</v>
+        <v>1.038670268545391</v>
       </c>
       <c r="L10">
-        <v>1.022203146485037</v>
+        <v>1.044002056308443</v>
       </c>
       <c r="M10">
-        <v>1.022640488761734</v>
+        <v>1.051501743492427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9912344483463883</v>
+        <v>1.031934146405743</v>
       </c>
       <c r="D11">
-        <v>1.011131527046834</v>
+        <v>1.034813593157688</v>
       </c>
       <c r="E11">
-        <v>1.005460456735236</v>
+        <v>1.040048327328079</v>
       </c>
       <c r="F11">
-        <v>1.005444012233942</v>
+        <v>1.047468946416308</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039715908110094</v>
+        <v>1.035952845644265</v>
       </c>
       <c r="J11">
-        <v>1.020976486431219</v>
+        <v>1.038524612513417</v>
       </c>
       <c r="K11">
-        <v>1.025846528550923</v>
+        <v>1.038385100500157</v>
       </c>
       <c r="L11">
-        <v>1.02028012632908</v>
+        <v>1.043600487656663</v>
       </c>
       <c r="M11">
-        <v>1.020263987575256</v>
+        <v>1.050994046991437</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9901261133078657</v>
+        <v>1.031723828607579</v>
       </c>
       <c r="D12">
-        <v>1.010366288828391</v>
+        <v>1.034662024161505</v>
       </c>
       <c r="E12">
-        <v>1.004517350154214</v>
+        <v>1.039853731642988</v>
       </c>
       <c r="F12">
-        <v>1.004327805164311</v>
+        <v>1.047235233566522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039411717587841</v>
+        <v>1.035907796237382</v>
       </c>
       <c r="J12">
-        <v>1.020354313139128</v>
+        <v>1.038401217491344</v>
       </c>
       <c r="K12">
-        <v>1.025297545895445</v>
+        <v>1.038279135934239</v>
       </c>
       <c r="L12">
-        <v>1.019558513599531</v>
+        <v>1.043451390352898</v>
       </c>
       <c r="M12">
-        <v>1.019372558310786</v>
+        <v>1.050805601392407</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9903643894641362</v>
+        <v>1.0317689372273</v>
       </c>
       <c r="D13">
-        <v>1.010530763158045</v>
+        <v>1.034694532138193</v>
       </c>
       <c r="E13">
-        <v>1.00472004371239</v>
+        <v>1.039895464644746</v>
       </c>
       <c r="F13">
-        <v>1.00456770436119</v>
+        <v>1.047285354365573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039477175415779</v>
+        <v>1.035917467028809</v>
       </c>
       <c r="J13">
-        <v>1.020488083447251</v>
+        <v>1.038427686417167</v>
       </c>
       <c r="K13">
-        <v>1.025415587574172</v>
+        <v>1.03830186750524</v>
       </c>
       <c r="L13">
-        <v>1.019713638360605</v>
+        <v>1.043483369349959</v>
       </c>
       <c r="M13">
-        <v>1.019564172751378</v>
+        <v>1.050846017456994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9911430731414019</v>
+        <v>1.031916759101055</v>
       </c>
       <c r="D14">
-        <v>1.011068419684749</v>
+        <v>1.034801062577</v>
       </c>
       <c r="E14">
-        <v>1.005382676259246</v>
+        <v>1.040032238188849</v>
       </c>
       <c r="F14">
-        <v>1.005351956872973</v>
+        <v>1.047449622502426</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03969085713864</v>
+        <v>1.035949125246541</v>
       </c>
       <c r="J14">
-        <v>1.02092519762449</v>
+        <v>1.038514412767995</v>
       </c>
       <c r="K14">
-        <v>1.025801276699262</v>
+        <v>1.0383763422546</v>
       </c>
       <c r="L14">
-        <v>1.020220628751772</v>
+        <v>1.043588161930384</v>
       </c>
       <c r="M14">
-        <v>1.020190481396094</v>
+        <v>1.050978467246528</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9916212905624263</v>
+        <v>1.032007852418607</v>
       </c>
       <c r="D15">
-        <v>1.011398732077447</v>
+        <v>1.034866711436509</v>
       </c>
       <c r="E15">
-        <v>1.005789799395292</v>
+        <v>1.040116533548475</v>
       </c>
       <c r="F15">
-        <v>1.005833796263156</v>
+        <v>1.047550866876499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039821907230678</v>
+        <v>1.035968608827166</v>
       </c>
       <c r="J15">
-        <v>1.021193609425836</v>
+        <v>1.038567846910004</v>
       </c>
       <c r="K15">
-        <v>1.026038087984752</v>
+        <v>1.038422223279854</v>
       </c>
       <c r="L15">
-        <v>1.020532022921443</v>
+        <v>1.043652736509828</v>
       </c>
       <c r="M15">
-        <v>1.020575207069164</v>
+        <v>1.051060091933202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9943814036947274</v>
+        <v>1.032538288629306</v>
       </c>
       <c r="D16">
-        <v>1.013306932598399</v>
+        <v>1.035248997205655</v>
       </c>
       <c r="E16">
-        <v>1.00814222913771</v>
+        <v>1.040607544271398</v>
       </c>
       <c r="F16">
-        <v>1.008617858101296</v>
+        <v>1.048140660823016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040575530318534</v>
+        <v>1.036081673876986</v>
       </c>
       <c r="J16">
-        <v>1.022742224177399</v>
+        <v>1.038878843202602</v>
       </c>
       <c r="K16">
-        <v>1.027404027473348</v>
+        <v>1.038689188471457</v>
       </c>
       <c r="L16">
-        <v>1.022329762500583</v>
+        <v>1.044028715881339</v>
       </c>
       <c r="M16">
-        <v>1.022797012590303</v>
+        <v>1.051535456551647</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9960926656484838</v>
+        <v>1.032871221882252</v>
       </c>
       <c r="D17">
-        <v>1.014491492077364</v>
+        <v>1.035488953030921</v>
       </c>
       <c r="E17">
-        <v>1.009603018336806</v>
+        <v>1.040915871455385</v>
       </c>
       <c r="F17">
-        <v>1.010346618949146</v>
+        <v>1.048511068901718</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0410403223158</v>
+        <v>1.036152298544616</v>
       </c>
       <c r="J17">
-        <v>1.023701829482695</v>
+        <v>1.039073910081682</v>
       </c>
       <c r="K17">
-        <v>1.028250115907074</v>
+        <v>1.038856575324956</v>
       </c>
       <c r="L17">
-        <v>1.023444741145656</v>
+        <v>1.044264668910469</v>
       </c>
       <c r="M17">
-        <v>1.024175634334169</v>
+        <v>1.051833879980042</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9970837529357376</v>
+        <v>1.033065489477312</v>
       </c>
       <c r="D18">
-        <v>1.015178049354326</v>
+        <v>1.035628971620669</v>
       </c>
       <c r="E18">
-        <v>1.010449853200659</v>
+        <v>1.041095831540077</v>
       </c>
       <c r="F18">
-        <v>1.011348786826642</v>
+        <v>1.048727281799223</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041308613462547</v>
+        <v>1.036193385098729</v>
       </c>
       <c r="J18">
-        <v>1.024257387093149</v>
+        <v>1.039187684263061</v>
       </c>
       <c r="K18">
-        <v>1.028739833943945</v>
+        <v>1.03895418243012</v>
       </c>
       <c r="L18">
-        <v>1.024090613948792</v>
+        <v>1.044402335920105</v>
       </c>
       <c r="M18">
-        <v>1.024974459193134</v>
+        <v>1.052008031222919</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9974205062686701</v>
+        <v>1.033131742087444</v>
       </c>
       <c r="D19">
-        <v>1.01541141405417</v>
+        <v>1.035676723858841</v>
       </c>
       <c r="E19">
-        <v>1.010737728357272</v>
+        <v>1.041157213249613</v>
       </c>
       <c r="F19">
-        <v>1.011689464847673</v>
+        <v>1.048801031917027</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041399620707629</v>
+        <v>1.036207376278246</v>
       </c>
       <c r="J19">
-        <v>1.024446119782528</v>
+        <v>1.039226477429063</v>
       </c>
       <c r="K19">
-        <v>1.028906179100352</v>
+        <v>1.038987459346676</v>
       </c>
       <c r="L19">
-        <v>1.024310090020821</v>
+        <v>1.044449283487929</v>
       </c>
       <c r="M19">
-        <v>1.025245950066885</v>
+        <v>1.052067426820041</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9959097978509838</v>
+        <v>1.032835493706391</v>
       </c>
       <c r="D20">
-        <v>1.014364854791024</v>
+        <v>1.035463202194086</v>
       </c>
       <c r="E20">
-        <v>1.009446832045382</v>
+        <v>1.040882778643018</v>
       </c>
       <c r="F20">
-        <v>1.010161782895276</v>
+        <v>1.048471311044364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040990746627769</v>
+        <v>1.036144732313139</v>
       </c>
       <c r="J20">
-        <v>1.023599305567426</v>
+        <v>1.039052981763113</v>
       </c>
       <c r="K20">
-        <v>1.028159732422492</v>
+        <v>1.03883861906479</v>
       </c>
       <c r="L20">
-        <v>1.023325579610288</v>
+        <v>1.044239349277612</v>
       </c>
       <c r="M20">
-        <v>1.024028272427316</v>
+        <v>1.051801853073516</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9909140952532234</v>
+        <v>1.031873226036362</v>
       </c>
       <c r="D21">
-        <v>1.010910292857681</v>
+        <v>1.034769689527489</v>
       </c>
       <c r="E21">
-        <v>1.005187787104904</v>
+        <v>1.039991956647671</v>
       </c>
       <c r="F21">
-        <v>1.005121299234828</v>
+        <v>1.047401242678897</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039628059769787</v>
+        <v>1.035939807291643</v>
       </c>
       <c r="J21">
-        <v>1.020796668217719</v>
+        <v>1.038488874188984</v>
       </c>
       <c r="K21">
-        <v>1.025687873080145</v>
+        <v>1.038354412404526</v>
       </c>
       <c r="L21">
-        <v>1.020071537332444</v>
+        <v>1.043557301372442</v>
       </c>
       <c r="M21">
-        <v>1.020006292289514</v>
+        <v>1.050939460332114</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.987705636972351</v>
+        <v>1.031268880567684</v>
       </c>
       <c r="D22">
-        <v>1.008696791039155</v>
+        <v>1.034334170547912</v>
       </c>
       <c r="E22">
-        <v>1.002460209275245</v>
+        <v>1.039432937025778</v>
       </c>
       <c r="F22">
-        <v>1.001892969458696</v>
+        <v>1.046729903077206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038744929885378</v>
+        <v>1.035809997678911</v>
       </c>
       <c r="J22">
-        <v>1.018995089609111</v>
+        <v>1.038134160365393</v>
       </c>
       <c r="K22">
-        <v>1.024097909351771</v>
+        <v>1.03804973896979</v>
       </c>
       <c r="L22">
-        <v>1.017983085980685</v>
+        <v>1.043128836964105</v>
       </c>
       <c r="M22">
-        <v>1.017427019296371</v>
+        <v>1.050398024444219</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894130888148953</v>
+        <v>1.031589191483129</v>
       </c>
       <c r="D23">
-        <v>1.009874245424166</v>
+        <v>1.034564997545942</v>
       </c>
       <c r="E23">
-        <v>1.003911002512025</v>
+        <v>1.039729181376466</v>
       </c>
       <c r="F23">
-        <v>1.003610149346135</v>
+        <v>1.047085654405642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039215642216927</v>
+        <v>1.035878903477798</v>
       </c>
       <c r="J23">
-        <v>1.019953977175434</v>
+        <v>1.038322203979167</v>
       </c>
       <c r="K23">
-        <v>1.024944256480693</v>
+        <v>1.038211273862201</v>
       </c>
       <c r="L23">
-        <v>1.019094352501245</v>
+        <v>1.043355938886696</v>
       </c>
       <c r="M23">
-        <v>1.018799264147749</v>
+        <v>1.050684974955321</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9959924497238144</v>
+        <v>1.032851637504967</v>
       </c>
       <c r="D24">
-        <v>1.014422090232548</v>
+        <v>1.035474837714719</v>
       </c>
       <c r="E24">
-        <v>1.009517422007033</v>
+        <v>1.04089773149591</v>
       </c>
       <c r="F24">
-        <v>1.010245321442734</v>
+        <v>1.048489275414177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041013156433439</v>
+        <v>1.036148151500061</v>
       </c>
       <c r="J24">
-        <v>1.023645644559459</v>
+        <v>1.039062438385108</v>
       </c>
       <c r="K24">
-        <v>1.028200584527055</v>
+        <v>1.038846732808836</v>
       </c>
       <c r="L24">
-        <v>1.023379437386612</v>
+        <v>1.044250790007637</v>
       </c>
       <c r="M24">
-        <v>1.024094875286186</v>
+        <v>1.051816324388744</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003352050534388</v>
+        <v>1.03431950429127</v>
       </c>
       <c r="D25">
-        <v>1.019528851077744</v>
+        <v>1.036532863532586</v>
       </c>
       <c r="E25">
-        <v>1.015819846110021</v>
+        <v>1.04225839362846</v>
       </c>
       <c r="F25">
-        <v>1.017703793530517</v>
+        <v>1.05012437471542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042989117893724</v>
+        <v>1.036456374819708</v>
       </c>
       <c r="J25">
-        <v>1.027767129023038</v>
+        <v>1.039921237571944</v>
       </c>
       <c r="K25">
-        <v>1.031831386345077</v>
+        <v>1.039583091414209</v>
       </c>
       <c r="L25">
-        <v>1.028177444574089</v>
+        <v>1.045290763391571</v>
       </c>
       <c r="M25">
-        <v>1.030033359504977</v>
+        <v>1.053132556724184</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035492529207973</v>
+        <v>1.009018461409865</v>
       </c>
       <c r="D2">
-        <v>1.037378459628777</v>
+        <v>1.023474255475171</v>
       </c>
       <c r="E2">
-        <v>1.043347320323245</v>
+        <v>1.020695760063364</v>
       </c>
       <c r="F2">
-        <v>1.051433521651894</v>
+        <v>1.023474635808483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036698782795838</v>
+        <v>1.044481305048432</v>
       </c>
       <c r="J2">
-        <v>1.040606006761255</v>
+        <v>1.030932737570607</v>
       </c>
       <c r="K2">
-        <v>1.040169514315052</v>
+        <v>1.0346159637257</v>
       </c>
       <c r="L2">
-        <v>1.046121442126428</v>
+        <v>1.031874107218858</v>
       </c>
       <c r="M2">
-        <v>1.054185036440427</v>
+        <v>1.034616339060773</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036345533137149</v>
+        <v>1.013023119687799</v>
       </c>
       <c r="D3">
-        <v>1.037993403367822</v>
+        <v>1.026269448706087</v>
       </c>
       <c r="E3">
-        <v>1.044140073716059</v>
+        <v>1.024154651460775</v>
       </c>
       <c r="F3">
-        <v>1.052386945588968</v>
+        <v>1.027569099238612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036872791389277</v>
+        <v>1.045518343705586</v>
       </c>
       <c r="J3">
-        <v>1.041103068719073</v>
+        <v>1.033164949258794</v>
       </c>
       <c r="K3">
-        <v>1.040594769499334</v>
+        <v>1.036576888085125</v>
       </c>
       <c r="L3">
-        <v>1.046725259811469</v>
+        <v>1.034487522936388</v>
       </c>
       <c r="M3">
-        <v>1.054950743636264</v>
+        <v>1.037860973712063</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036898069220728</v>
+        <v>1.015566239069063</v>
       </c>
       <c r="D4">
-        <v>1.03839175007892</v>
+        <v>1.028047360393876</v>
       </c>
       <c r="E4">
-        <v>1.044653998068479</v>
+        <v>1.026356956427618</v>
       </c>
       <c r="F4">
-        <v>1.053005191315282</v>
+        <v>1.030176542569962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036984456721124</v>
+        <v>1.046168570066543</v>
       </c>
       <c r="J4">
-        <v>1.041424628648928</v>
+        <v>1.03457996985545</v>
       </c>
       <c r="K4">
-        <v>1.040869681295405</v>
+        <v>1.037818664861875</v>
       </c>
       <c r="L4">
-        <v>1.0471162729038</v>
+        <v>1.036147352086141</v>
       </c>
       <c r="M4">
-        <v>1.055446898853028</v>
+        <v>1.039923910133555</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037130494042757</v>
+        <v>1.016624198580856</v>
       </c>
       <c r="D5">
-        <v>1.038559317984575</v>
+        <v>1.028787626550547</v>
       </c>
       <c r="E5">
-        <v>1.04487027995685</v>
+        <v>1.027274489865018</v>
       </c>
       <c r="F5">
-        <v>1.053265415280732</v>
+        <v>1.031262996368183</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037031177565089</v>
+        <v>1.046437038311499</v>
       </c>
       <c r="J5">
-        <v>1.041559793909641</v>
+        <v>1.035167997229857</v>
       </c>
       <c r="K5">
-        <v>1.040985191581794</v>
+        <v>1.038334383770193</v>
       </c>
       <c r="L5">
-        <v>1.047280725910375</v>
+        <v>1.036837877367069</v>
       </c>
       <c r="M5">
-        <v>1.055655646497785</v>
+        <v>1.040782676950545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037169527279693</v>
+        <v>1.016801189987855</v>
       </c>
       <c r="D6">
-        <v>1.038587459361664</v>
+        <v>1.028911505751199</v>
       </c>
       <c r="E6">
-        <v>1.044906607963213</v>
+        <v>1.027428067552884</v>
       </c>
       <c r="F6">
-        <v>1.053309126360177</v>
+        <v>1.031444856284627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037039009089341</v>
+        <v>1.046481831403514</v>
       </c>
       <c r="J6">
-        <v>1.041582487629904</v>
+        <v>1.035266333283609</v>
       </c>
       <c r="K6">
-        <v>1.041004582560401</v>
+        <v>1.038420608841524</v>
       </c>
       <c r="L6">
-        <v>1.047308342423833</v>
+        <v>1.036953399365793</v>
       </c>
       <c r="M6">
-        <v>1.055690705717544</v>
+        <v>1.04092637709846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03690117434966</v>
+        <v>1.015580418989005</v>
       </c>
       <c r="D7">
-        <v>1.038393988727059</v>
+        <v>1.028057279775277</v>
       </c>
       <c r="E7">
-        <v>1.044656887143564</v>
+        <v>1.026369248889005</v>
       </c>
       <c r="F7">
-        <v>1.053008667211149</v>
+        <v>1.030191097569559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036985081885402</v>
+        <v>1.046172176432219</v>
       </c>
       <c r="J7">
-        <v>1.041426434808087</v>
+        <v>1.034587853772776</v>
       </c>
       <c r="K7">
-        <v>1.040871224997073</v>
+        <v>1.037825580568512</v>
       </c>
       <c r="L7">
-        <v>1.04711847005524</v>
+        <v>1.036156607202204</v>
       </c>
       <c r="M7">
-        <v>1.055449687506834</v>
+        <v>1.039935418046225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03578068373358</v>
+        <v>1.010382050003062</v>
       </c>
       <c r="D8">
-        <v>1.037586191259892</v>
+        <v>1.024425395739155</v>
       </c>
       <c r="E8">
-        <v>1.043615035262156</v>
+        <v>1.021872288506406</v>
       </c>
       <c r="F8">
-        <v>1.051755462050887</v>
+        <v>1.024867265962424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036757781957621</v>
+        <v>1.044836143507895</v>
       </c>
       <c r="J8">
-        <v>1.04077400544365</v>
+        <v>1.031693318418911</v>
       </c>
       <c r="K8">
-        <v>1.040313283754073</v>
+        <v>1.035284369632378</v>
       </c>
       <c r="L8">
-        <v>1.046325441652573</v>
+        <v>1.03276391721055</v>
       </c>
       <c r="M8">
-        <v>1.054443666671308</v>
+        <v>1.035720608867634</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033810787578096</v>
+        <v>1.000835891010607</v>
       </c>
       <c r="D9">
-        <v>1.0361661694757</v>
+        <v>1.017780636644233</v>
       </c>
       <c r="E9">
-        <v>1.041786586476362</v>
+        <v>1.013661329413551</v>
       </c>
       <c r="F9">
-        <v>1.049557316380466</v>
+        <v>1.015149314122707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036350157612704</v>
+        <v>1.042318066664928</v>
       </c>
       <c r="J9">
-        <v>1.039623840282886</v>
+        <v>1.026359166302458</v>
       </c>
       <c r="K9">
-        <v>1.039328205282475</v>
+        <v>1.030591675039968</v>
       </c>
       <c r="L9">
-        <v>1.044930402497078</v>
+        <v>1.026536582375431</v>
       </c>
       <c r="M9">
-        <v>1.052676293576075</v>
+        <v>1.028001294494905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032500673915797</v>
+        <v>0.9941870464585493</v>
       </c>
       <c r="D10">
-        <v>1.03522188756141</v>
+        <v>1.013172467117778</v>
       </c>
       <c r="E10">
-        <v>1.040572716346617</v>
+        <v>1.007976430833414</v>
       </c>
       <c r="F10">
-        <v>1.048098822853909</v>
+        <v>1.008421642883358</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036073678063231</v>
+        <v>1.040522620301947</v>
       </c>
       <c r="J10">
-        <v>1.038856798115761</v>
+        <v>1.022633209807195</v>
       </c>
       <c r="K10">
-        <v>1.038670268545391</v>
+        <v>1.027307892978753</v>
       </c>
       <c r="L10">
-        <v>1.044002056308443</v>
+        <v>1.022203146485037</v>
       </c>
       <c r="M10">
-        <v>1.051501743492427</v>
+        <v>1.022640488761734</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031934146405743</v>
+        <v>0.9912344483463889</v>
       </c>
       <c r="D11">
-        <v>1.034813593157688</v>
+        <v>1.011131527046835</v>
       </c>
       <c r="E11">
-        <v>1.040048327328079</v>
+        <v>1.005460456735236</v>
       </c>
       <c r="F11">
-        <v>1.047468946416308</v>
+        <v>1.005444012233943</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035952845644265</v>
+        <v>1.039715908110094</v>
       </c>
       <c r="J11">
-        <v>1.038524612513417</v>
+        <v>1.02097648643122</v>
       </c>
       <c r="K11">
-        <v>1.038385100500157</v>
+        <v>1.025846528550924</v>
       </c>
       <c r="L11">
-        <v>1.043600487656663</v>
+        <v>1.020280126329081</v>
       </c>
       <c r="M11">
-        <v>1.050994046991437</v>
+        <v>1.020263987575257</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031723828607579</v>
+        <v>0.9901261133078664</v>
       </c>
       <c r="D12">
-        <v>1.034662024161505</v>
+        <v>1.010366288828391</v>
       </c>
       <c r="E12">
-        <v>1.039853731642988</v>
+        <v>1.004517350154215</v>
       </c>
       <c r="F12">
-        <v>1.047235233566522</v>
+        <v>1.004327805164311</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035907796237382</v>
+        <v>1.039411717587841</v>
       </c>
       <c r="J12">
-        <v>1.038401217491344</v>
+        <v>1.020354313139128</v>
       </c>
       <c r="K12">
-        <v>1.038279135934239</v>
+        <v>1.025297545895446</v>
       </c>
       <c r="L12">
-        <v>1.043451390352898</v>
+        <v>1.019558513599532</v>
       </c>
       <c r="M12">
-        <v>1.050805601392407</v>
+        <v>1.019372558310787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0317689372273</v>
+        <v>0.9903643894641366</v>
       </c>
       <c r="D13">
-        <v>1.034694532138193</v>
+        <v>1.010530763158046</v>
       </c>
       <c r="E13">
-        <v>1.039895464644746</v>
+        <v>1.00472004371239</v>
       </c>
       <c r="F13">
-        <v>1.047285354365573</v>
+        <v>1.00456770436119</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035917467028809</v>
+        <v>1.039477175415779</v>
       </c>
       <c r="J13">
-        <v>1.038427686417167</v>
+        <v>1.020488083447252</v>
       </c>
       <c r="K13">
-        <v>1.03830186750524</v>
+        <v>1.025415587574173</v>
       </c>
       <c r="L13">
-        <v>1.043483369349959</v>
+        <v>1.019713638360606</v>
       </c>
       <c r="M13">
-        <v>1.050846017456994</v>
+        <v>1.019564172751378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031916759101055</v>
+        <v>0.9911430731414017</v>
       </c>
       <c r="D14">
-        <v>1.034801062577</v>
+        <v>1.011068419684749</v>
       </c>
       <c r="E14">
-        <v>1.040032238188849</v>
+        <v>1.005382676259245</v>
       </c>
       <c r="F14">
-        <v>1.047449622502426</v>
+        <v>1.005351956872973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035949125246541</v>
+        <v>1.03969085713864</v>
       </c>
       <c r="J14">
-        <v>1.038514412767995</v>
+        <v>1.02092519762449</v>
       </c>
       <c r="K14">
-        <v>1.0383763422546</v>
+        <v>1.025801276699262</v>
       </c>
       <c r="L14">
-        <v>1.043588161930384</v>
+        <v>1.020220628751771</v>
       </c>
       <c r="M14">
-        <v>1.050978467246528</v>
+        <v>1.020190481396094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032007852418607</v>
+        <v>0.9916212905624259</v>
       </c>
       <c r="D15">
-        <v>1.034866711436509</v>
+        <v>1.011398732077447</v>
       </c>
       <c r="E15">
-        <v>1.040116533548475</v>
+        <v>1.005789799395292</v>
       </c>
       <c r="F15">
-        <v>1.047550866876499</v>
+        <v>1.005833796263155</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035968608827166</v>
+        <v>1.039821907230677</v>
       </c>
       <c r="J15">
-        <v>1.038567846910004</v>
+        <v>1.021193609425835</v>
       </c>
       <c r="K15">
-        <v>1.038422223279854</v>
+        <v>1.026038087984751</v>
       </c>
       <c r="L15">
-        <v>1.043652736509828</v>
+        <v>1.020532022921443</v>
       </c>
       <c r="M15">
-        <v>1.051060091933202</v>
+        <v>1.020575207069164</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032538288629306</v>
+        <v>0.9943814036947277</v>
       </c>
       <c r="D16">
-        <v>1.035248997205655</v>
+        <v>1.013306932598399</v>
       </c>
       <c r="E16">
-        <v>1.040607544271398</v>
+        <v>1.00814222913771</v>
       </c>
       <c r="F16">
-        <v>1.048140660823016</v>
+        <v>1.008617858101297</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036081673876986</v>
+        <v>1.040575530318534</v>
       </c>
       <c r="J16">
-        <v>1.038878843202602</v>
+        <v>1.022742224177399</v>
       </c>
       <c r="K16">
-        <v>1.038689188471457</v>
+        <v>1.027404027473348</v>
       </c>
       <c r="L16">
-        <v>1.044028715881339</v>
+        <v>1.022329762500584</v>
       </c>
       <c r="M16">
-        <v>1.051535456551647</v>
+        <v>1.022797012590304</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032871221882252</v>
+        <v>0.9960926656484832</v>
       </c>
       <c r="D17">
-        <v>1.035488953030921</v>
+        <v>1.014491492077363</v>
       </c>
       <c r="E17">
-        <v>1.040915871455385</v>
+        <v>1.009603018336806</v>
       </c>
       <c r="F17">
-        <v>1.048511068901718</v>
+        <v>1.010346618949146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036152298544616</v>
+        <v>1.041040322315799</v>
       </c>
       <c r="J17">
-        <v>1.039073910081682</v>
+        <v>1.023701829482694</v>
       </c>
       <c r="K17">
-        <v>1.038856575324956</v>
+        <v>1.028250115907074</v>
       </c>
       <c r="L17">
-        <v>1.044264668910469</v>
+        <v>1.023444741145656</v>
       </c>
       <c r="M17">
-        <v>1.051833879980042</v>
+        <v>1.024175634334168</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033065489477312</v>
+        <v>0.997083752935738</v>
       </c>
       <c r="D18">
-        <v>1.035628971620669</v>
+        <v>1.015178049354326</v>
       </c>
       <c r="E18">
-        <v>1.041095831540077</v>
+        <v>1.01044985320066</v>
       </c>
       <c r="F18">
-        <v>1.048727281799223</v>
+        <v>1.011348786826643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036193385098729</v>
+        <v>1.041308613462547</v>
       </c>
       <c r="J18">
-        <v>1.039187684263061</v>
+        <v>1.02425738709315</v>
       </c>
       <c r="K18">
-        <v>1.03895418243012</v>
+        <v>1.028739833943946</v>
       </c>
       <c r="L18">
-        <v>1.044402335920105</v>
+        <v>1.024090613948792</v>
       </c>
       <c r="M18">
-        <v>1.052008031222919</v>
+        <v>1.024974459193135</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033131742087444</v>
+        <v>0.9974205062686702</v>
       </c>
       <c r="D19">
-        <v>1.035676723858841</v>
+        <v>1.01541141405417</v>
       </c>
       <c r="E19">
-        <v>1.041157213249613</v>
+        <v>1.010737728357272</v>
       </c>
       <c r="F19">
-        <v>1.048801031917027</v>
+        <v>1.011689464847673</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036207376278246</v>
+        <v>1.041399620707629</v>
       </c>
       <c r="J19">
-        <v>1.039226477429063</v>
+        <v>1.024446119782528</v>
       </c>
       <c r="K19">
-        <v>1.038987459346676</v>
+        <v>1.028906179100352</v>
       </c>
       <c r="L19">
-        <v>1.044449283487929</v>
+        <v>1.024310090020821</v>
       </c>
       <c r="M19">
-        <v>1.052067426820041</v>
+        <v>1.025245950066884</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032835493706391</v>
+        <v>0.9959097978509824</v>
       </c>
       <c r="D20">
-        <v>1.035463202194086</v>
+        <v>1.014364854791023</v>
       </c>
       <c r="E20">
-        <v>1.040882778643018</v>
+        <v>1.00944683204538</v>
       </c>
       <c r="F20">
-        <v>1.048471311044364</v>
+        <v>1.010161782895274</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036144732313139</v>
+        <v>1.040990746627769</v>
       </c>
       <c r="J20">
-        <v>1.039052981763113</v>
+        <v>1.023599305567425</v>
       </c>
       <c r="K20">
-        <v>1.03883861906479</v>
+        <v>1.028159732422491</v>
       </c>
       <c r="L20">
-        <v>1.044239349277612</v>
+        <v>1.023325579610286</v>
       </c>
       <c r="M20">
-        <v>1.051801853073516</v>
+        <v>1.024028272427314</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031873226036362</v>
+        <v>0.9909140952532234</v>
       </c>
       <c r="D21">
-        <v>1.034769689527489</v>
+        <v>1.010910292857681</v>
       </c>
       <c r="E21">
-        <v>1.039991956647671</v>
+        <v>1.005187787104904</v>
       </c>
       <c r="F21">
-        <v>1.047401242678897</v>
+        <v>1.005121299234828</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035939807291643</v>
+        <v>1.039628059769787</v>
       </c>
       <c r="J21">
-        <v>1.038488874188984</v>
+        <v>1.020796668217719</v>
       </c>
       <c r="K21">
-        <v>1.038354412404526</v>
+        <v>1.025687873080145</v>
       </c>
       <c r="L21">
-        <v>1.043557301372442</v>
+        <v>1.020071537332443</v>
       </c>
       <c r="M21">
-        <v>1.050939460332114</v>
+        <v>1.020006292289514</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031268880567684</v>
+        <v>0.9877056369723501</v>
       </c>
       <c r="D22">
-        <v>1.034334170547912</v>
+        <v>1.008696791039155</v>
       </c>
       <c r="E22">
-        <v>1.039432937025778</v>
+        <v>1.002460209275244</v>
       </c>
       <c r="F22">
-        <v>1.046729903077206</v>
+        <v>1.001892969458695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035809997678911</v>
+        <v>1.038744929885377</v>
       </c>
       <c r="J22">
-        <v>1.038134160365393</v>
+        <v>1.01899508960911</v>
       </c>
       <c r="K22">
-        <v>1.03804973896979</v>
+        <v>1.024097909351771</v>
       </c>
       <c r="L22">
-        <v>1.043128836964105</v>
+        <v>1.017983085980684</v>
       </c>
       <c r="M22">
-        <v>1.050398024444219</v>
+        <v>1.01742701929637</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031589191483129</v>
+        <v>0.989413088814896</v>
       </c>
       <c r="D23">
-        <v>1.034564997545942</v>
+        <v>1.009874245424167</v>
       </c>
       <c r="E23">
-        <v>1.039729181376466</v>
+        <v>1.003911002512026</v>
       </c>
       <c r="F23">
-        <v>1.047085654405642</v>
+        <v>1.003610149346135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035878903477798</v>
+        <v>1.039215642216928</v>
       </c>
       <c r="J23">
-        <v>1.038322203979167</v>
+        <v>1.019953977175434</v>
       </c>
       <c r="K23">
-        <v>1.038211273862201</v>
+        <v>1.024944256480693</v>
       </c>
       <c r="L23">
-        <v>1.043355938886696</v>
+        <v>1.019094352501246</v>
       </c>
       <c r="M23">
-        <v>1.050684974955321</v>
+        <v>1.018799264147749</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032851637504967</v>
+        <v>0.9959924497238132</v>
       </c>
       <c r="D24">
-        <v>1.035474837714719</v>
+        <v>1.014422090232547</v>
       </c>
       <c r="E24">
-        <v>1.04089773149591</v>
+        <v>1.009517422007032</v>
       </c>
       <c r="F24">
-        <v>1.048489275414177</v>
+        <v>1.010245321442732</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036148151500061</v>
+        <v>1.041013156433439</v>
       </c>
       <c r="J24">
-        <v>1.039062438385108</v>
+        <v>1.023645644559458</v>
       </c>
       <c r="K24">
-        <v>1.038846732808836</v>
+        <v>1.028200584527054</v>
       </c>
       <c r="L24">
-        <v>1.044250790007637</v>
+        <v>1.023379437386611</v>
       </c>
       <c r="M24">
-        <v>1.051816324388744</v>
+        <v>1.024094875286185</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03431950429127</v>
+        <v>1.003352050534387</v>
       </c>
       <c r="D25">
-        <v>1.036532863532586</v>
+        <v>1.019528851077743</v>
       </c>
       <c r="E25">
-        <v>1.04225839362846</v>
+        <v>1.01581984611002</v>
       </c>
       <c r="F25">
-        <v>1.05012437471542</v>
+        <v>1.017703793530516</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036456374819708</v>
+        <v>1.042989117893724</v>
       </c>
       <c r="J25">
-        <v>1.039921237571944</v>
+        <v>1.027767129023038</v>
       </c>
       <c r="K25">
-        <v>1.039583091414209</v>
+        <v>1.031831386345076</v>
       </c>
       <c r="L25">
-        <v>1.045290763391571</v>
+        <v>1.028177444574088</v>
       </c>
       <c r="M25">
-        <v>1.053132556724184</v>
+        <v>1.030033359504976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009018461409865</v>
+        <v>1.029825251371618</v>
       </c>
       <c r="D2">
-        <v>1.023474255475171</v>
+        <v>1.04089543914389</v>
       </c>
       <c r="E2">
-        <v>1.020695760063364</v>
+        <v>1.040037774787495</v>
       </c>
       <c r="F2">
-        <v>1.023474635808483</v>
+        <v>1.04637990011394</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044481305048432</v>
+        <v>1.055338257800959</v>
       </c>
       <c r="J2">
-        <v>1.030932737570607</v>
+        <v>1.051149072856441</v>
       </c>
       <c r="K2">
-        <v>1.0346159637257</v>
+        <v>1.051812985244159</v>
       </c>
       <c r="L2">
-        <v>1.031874107218858</v>
+        <v>1.050966137288101</v>
       </c>
       <c r="M2">
-        <v>1.034616339060773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.057228801448373</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053865026661156</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047706492693292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013023119687799</v>
+        <v>1.034136101899279</v>
       </c>
       <c r="D3">
-        <v>1.026269448706087</v>
+        <v>1.043801930120345</v>
       </c>
       <c r="E3">
-        <v>1.024154651460775</v>
+        <v>1.043447774418707</v>
       </c>
       <c r="F3">
-        <v>1.027569099238612</v>
+        <v>1.049565929464057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045518343705586</v>
+        <v>1.056568413234804</v>
       </c>
       <c r="J3">
-        <v>1.033164949258794</v>
+        <v>1.05373754517421</v>
       </c>
       <c r="K3">
-        <v>1.036576888085125</v>
+        <v>1.05390343050869</v>
       </c>
       <c r="L3">
-        <v>1.034487522936388</v>
+        <v>1.053553350177098</v>
       </c>
       <c r="M3">
-        <v>1.037860973712063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.059601578648062</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055742884409755</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049181952980399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015566239069063</v>
+        <v>1.036873332491097</v>
       </c>
       <c r="D4">
-        <v>1.028047360393876</v>
+        <v>1.045651230403786</v>
       </c>
       <c r="E4">
-        <v>1.026356956427618</v>
+        <v>1.045618588683699</v>
       </c>
       <c r="F4">
-        <v>1.030176542569962</v>
+        <v>1.051596251028089</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046168570066543</v>
+        <v>1.057341653394085</v>
       </c>
       <c r="J4">
-        <v>1.03457996985545</v>
+        <v>1.055378637675132</v>
       </c>
       <c r="K4">
-        <v>1.037818664861875</v>
+        <v>1.055228220126535</v>
       </c>
       <c r="L4">
-        <v>1.036147352086141</v>
+        <v>1.05519593128509</v>
       </c>
       <c r="M4">
-        <v>1.039923910133555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.061109418509318</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056936213076965</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050119553964082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016624198580856</v>
+        <v>1.038017066400136</v>
       </c>
       <c r="D5">
-        <v>1.028787626550547</v>
+        <v>1.046427284517081</v>
       </c>
       <c r="E5">
-        <v>1.027274489865018</v>
+        <v>1.04652746408303</v>
       </c>
       <c r="F5">
-        <v>1.031262996368183</v>
+        <v>1.052446129974886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046437038311499</v>
+        <v>1.057664939149111</v>
       </c>
       <c r="J5">
-        <v>1.035167997229857</v>
+        <v>1.056065650453713</v>
       </c>
       <c r="K5">
-        <v>1.038334383770193</v>
+        <v>1.055784511930466</v>
       </c>
       <c r="L5">
-        <v>1.036837877367069</v>
+        <v>1.055883637426814</v>
       </c>
       <c r="M5">
-        <v>1.040782676950545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.061740463105871</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.057435631345912</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050519959644702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016801189987855</v>
+        <v>1.038214601839191</v>
       </c>
       <c r="D6">
-        <v>1.028911505751199</v>
+        <v>1.04656436136136</v>
       </c>
       <c r="E6">
-        <v>1.027428067552884</v>
+        <v>1.046685131829788</v>
       </c>
       <c r="F6">
-        <v>1.031444856284627</v>
+        <v>1.052592778140129</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046481831403514</v>
+        <v>1.057723235592987</v>
       </c>
       <c r="J6">
-        <v>1.035266333283609</v>
+        <v>1.056186604007192</v>
       </c>
       <c r="K6">
-        <v>1.038420608841524</v>
+        <v>1.05588466069325</v>
       </c>
       <c r="L6">
-        <v>1.036953399365793</v>
+        <v>1.05600416628615</v>
       </c>
       <c r="M6">
-        <v>1.04092637709846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.061850371967068</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.057522614853078</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050599393306141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015580418989005</v>
+        <v>1.036905393879646</v>
       </c>
       <c r="D7">
-        <v>1.028057279775277</v>
+        <v>1.045681020242848</v>
       </c>
       <c r="E7">
-        <v>1.026369248889005</v>
+        <v>1.045645752719385</v>
       </c>
       <c r="F7">
-        <v>1.030191097569559</v>
+        <v>1.051619447179889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046172176432219</v>
+        <v>1.057357677326692</v>
       </c>
       <c r="J7">
-        <v>1.034587853772776</v>
+        <v>1.05540419186876</v>
       </c>
       <c r="K7">
-        <v>1.037825580568512</v>
+        <v>1.055254860810348</v>
       </c>
       <c r="L7">
-        <v>1.036156607202204</v>
+        <v>1.055219974400147</v>
       </c>
       <c r="M7">
-        <v>1.039935418046225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.06112956139168</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056952154464742</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050158225477886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010382050003062</v>
+        <v>1.031314410346134</v>
       </c>
       <c r="D8">
-        <v>1.024425395739155</v>
+        <v>1.04190874158564</v>
       </c>
       <c r="E8">
-        <v>1.021872288506406</v>
+        <v>1.041216840311059</v>
       </c>
       <c r="F8">
-        <v>1.024867265962424</v>
+        <v>1.047478281651351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044836143507895</v>
+        <v>1.05577360007405</v>
       </c>
       <c r="J8">
-        <v>1.031693318418911</v>
+        <v>1.052051665303149</v>
       </c>
       <c r="K8">
-        <v>1.035284369632378</v>
+        <v>1.05254944842776</v>
       </c>
       <c r="L8">
-        <v>1.03276391721055</v>
+        <v>1.051866011787111</v>
       </c>
       <c r="M8">
-        <v>1.035720608867634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.058051357141003</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054516012278363</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048249840119245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000835891010607</v>
+        <v>1.021016051982249</v>
       </c>
       <c r="D9">
-        <v>1.017780636644233</v>
+        <v>1.034979471134582</v>
       </c>
       <c r="E9">
-        <v>1.013661329413551</v>
+        <v>1.033102363391695</v>
       </c>
       <c r="F9">
-        <v>1.015149314122707</v>
+        <v>1.039911516577386</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042318066664928</v>
+        <v>1.052783532073942</v>
       </c>
       <c r="J9">
-        <v>1.026359166302458</v>
+        <v>1.04584789885462</v>
       </c>
       <c r="K9">
-        <v>1.030591675039968</v>
+        <v>1.047529424668937</v>
       </c>
       <c r="L9">
-        <v>1.026536582375431</v>
+        <v>1.045680274543285</v>
       </c>
       <c r="M9">
-        <v>1.028001294494905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.052388622981193</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.05003440951995</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044697284663916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9941870464585493</v>
+        <v>1.013946603086891</v>
       </c>
       <c r="D10">
-        <v>1.013172467117778</v>
+        <v>1.030263559893327</v>
       </c>
       <c r="E10">
-        <v>1.007976430833414</v>
+        <v>1.027605884982898</v>
       </c>
       <c r="F10">
-        <v>1.008421642883358</v>
+        <v>1.034840923519172</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040522620301947</v>
+        <v>1.050725546849006</v>
       </c>
       <c r="J10">
-        <v>1.022633209807195</v>
+        <v>1.041617603782261</v>
       </c>
       <c r="K10">
-        <v>1.027307892978753</v>
+        <v>1.044107081234395</v>
       </c>
       <c r="L10">
-        <v>1.022203146485037</v>
+        <v>1.041493975447771</v>
       </c>
       <c r="M10">
-        <v>1.022640488761734</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.04860837330055</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047093534459176</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042294159899153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9912344483463889</v>
+        <v>1.011654175858958</v>
       </c>
       <c r="D11">
-        <v>1.011131527046835</v>
+        <v>1.028863394583971</v>
       </c>
       <c r="E11">
-        <v>1.005460456735236</v>
+        <v>1.026153490111715</v>
       </c>
       <c r="F11">
-        <v>1.005444012233943</v>
+        <v>1.033852734871044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039715908110094</v>
+        <v>1.05031165304151</v>
       </c>
       <c r="J11">
-        <v>1.02097648643122</v>
+        <v>1.040550037754981</v>
       </c>
       <c r="K11">
-        <v>1.025846528550924</v>
+        <v>1.043260772022264</v>
       </c>
       <c r="L11">
-        <v>1.020280126329081</v>
+        <v>1.040598487686833</v>
       </c>
       <c r="M11">
-        <v>1.020263987575257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.048163281190218</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047173172126332</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041728337972533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901261133078664</v>
+        <v>1.011109308210374</v>
       </c>
       <c r="D12">
-        <v>1.010366288828391</v>
+        <v>1.028590957170889</v>
       </c>
       <c r="E12">
-        <v>1.004517350154215</v>
+        <v>1.02597251817877</v>
       </c>
       <c r="F12">
-        <v>1.004327805164311</v>
+        <v>1.033942675610921</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039411717587841</v>
+        <v>1.050344913376419</v>
       </c>
       <c r="J12">
-        <v>1.020354313139128</v>
+        <v>1.040450831924548</v>
       </c>
       <c r="K12">
-        <v>1.025297545895446</v>
+        <v>1.043190160485205</v>
       </c>
       <c r="L12">
-        <v>1.019558513599532</v>
+        <v>1.040618486864591</v>
       </c>
       <c r="M12">
-        <v>1.019372558310787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.048447251985772</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047721178877846</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041678414172133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9903643894641366</v>
+        <v>1.01189563625951</v>
       </c>
       <c r="D13">
-        <v>1.010530763158046</v>
+        <v>1.029191630849277</v>
       </c>
       <c r="E13">
-        <v>1.00472004371239</v>
+        <v>1.026778943132465</v>
       </c>
       <c r="F13">
-        <v>1.00456770436119</v>
+        <v>1.03489499221685</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039477175415779</v>
+        <v>1.050743201689594</v>
       </c>
       <c r="J13">
-        <v>1.020488083447252</v>
+        <v>1.041114133550126</v>
       </c>
       <c r="K13">
-        <v>1.025415587574173</v>
+        <v>1.043737918687801</v>
       </c>
       <c r="L13">
-        <v>1.019713638360606</v>
+        <v>1.041368101671793</v>
       </c>
       <c r="M13">
-        <v>1.019564172751378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.049340967160963</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048702179258317</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042063220945596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9911430731414017</v>
+        <v>1.013047904900757</v>
       </c>
       <c r="D14">
-        <v>1.011068419684749</v>
+        <v>1.030008104960587</v>
       </c>
       <c r="E14">
-        <v>1.005382676259245</v>
+        <v>1.027788344009308</v>
       </c>
       <c r="F14">
-        <v>1.005351956872973</v>
+        <v>1.035949695556047</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03969085713864</v>
+        <v>1.051186772258723</v>
       </c>
       <c r="J14">
-        <v>1.02092519762449</v>
+        <v>1.041922666234128</v>
       </c>
       <c r="K14">
-        <v>1.025801276699262</v>
+        <v>1.044401721412288</v>
       </c>
       <c r="L14">
-        <v>1.020220628751771</v>
+        <v>1.042220881650127</v>
       </c>
       <c r="M14">
-        <v>1.020190481396094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.050240193725912</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049585028791653</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042533954211028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9916212905624259</v>
+        <v>1.013627306110323</v>
       </c>
       <c r="D15">
-        <v>1.011398732077447</v>
+        <v>1.030406480061834</v>
       </c>
       <c r="E15">
-        <v>1.005789799395292</v>
+        <v>1.028261626351403</v>
       </c>
       <c r="F15">
-        <v>1.005833796263155</v>
+        <v>1.036412588342993</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039821907230677</v>
+        <v>1.051381027796303</v>
       </c>
       <c r="J15">
-        <v>1.021193609425835</v>
+        <v>1.042296231118362</v>
       </c>
       <c r="K15">
-        <v>1.026038087984751</v>
+        <v>1.04470801241067</v>
       </c>
       <c r="L15">
-        <v>1.020532022921443</v>
+        <v>1.042600469521359</v>
       </c>
       <c r="M15">
-        <v>1.020575207069164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.050610702941309</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049915157623666</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042756321506018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9943814036947277</v>
+        <v>1.016470448860089</v>
       </c>
       <c r="D16">
-        <v>1.013306932598399</v>
+        <v>1.032287626450161</v>
       </c>
       <c r="E16">
-        <v>1.00814222913771</v>
+        <v>1.030437484747892</v>
       </c>
       <c r="F16">
-        <v>1.008617858101297</v>
+        <v>1.038406086452896</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040575530318534</v>
+        <v>1.052189242131345</v>
       </c>
       <c r="J16">
-        <v>1.022742224177399</v>
+        <v>1.043970750405266</v>
       </c>
       <c r="K16">
-        <v>1.027404027473348</v>
+        <v>1.04606236222862</v>
       </c>
       <c r="L16">
-        <v>1.022329762500584</v>
+        <v>1.044242969556372</v>
       </c>
       <c r="M16">
-        <v>1.022797012590304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.05208013741883</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051038172765896</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043717008625741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9960926656484832</v>
+        <v>1.018050163115061</v>
       </c>
       <c r="D17">
-        <v>1.014491492077363</v>
+        <v>1.033305820806733</v>
       </c>
       <c r="E17">
-        <v>1.009603018336806</v>
+        <v>1.031579947804291</v>
       </c>
       <c r="F17">
-        <v>1.010346618949146</v>
+        <v>1.039379476277609</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041040322315799</v>
+        <v>1.052575549670393</v>
       </c>
       <c r="J17">
-        <v>1.023701829482694</v>
+        <v>1.044831945651798</v>
       </c>
       <c r="K17">
-        <v>1.028250115907074</v>
+        <v>1.0467540357926</v>
       </c>
       <c r="L17">
-        <v>1.023444741145656</v>
+        <v>1.045056031570344</v>
       </c>
       <c r="M17">
-        <v>1.024175634334168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.052730558846595</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051424279304538</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04420859723934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.997083752935738</v>
+        <v>1.018665881884306</v>
       </c>
       <c r="D18">
-        <v>1.015178049354326</v>
+        <v>1.033649134458543</v>
       </c>
       <c r="E18">
-        <v>1.01044985320066</v>
+        <v>1.031899942832273</v>
       </c>
       <c r="F18">
-        <v>1.011348786826643</v>
+        <v>1.03950711883235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041308613462547</v>
+        <v>1.052615486702065</v>
       </c>
       <c r="J18">
-        <v>1.02425738709315</v>
+        <v>1.045041799785286</v>
       </c>
       <c r="K18">
-        <v>1.028739833943946</v>
+        <v>1.046911262485837</v>
       </c>
       <c r="L18">
-        <v>1.024090613948792</v>
+        <v>1.045189858712792</v>
       </c>
       <c r="M18">
-        <v>1.024974459193135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.052677057115022</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051146439284028</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044308246115365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9974205062686702</v>
+        <v>1.018439689027218</v>
       </c>
       <c r="D19">
-        <v>1.01541141405417</v>
+        <v>1.0334173060793</v>
       </c>
       <c r="E19">
-        <v>1.010737728357272</v>
+        <v>1.031499266969475</v>
       </c>
       <c r="F19">
-        <v>1.011689464847673</v>
+        <v>1.038883154702324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041399620707629</v>
+        <v>1.052366911127026</v>
       </c>
       <c r="J19">
-        <v>1.024446119782528</v>
+        <v>1.044693055335692</v>
       </c>
       <c r="K19">
-        <v>1.028906179100352</v>
+        <v>1.046621521257149</v>
       </c>
       <c r="L19">
-        <v>1.024310090020821</v>
+        <v>1.044733814058941</v>
       </c>
       <c r="M19">
-        <v>1.025245950066884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.052001718085765</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050290220959121</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044109722554519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9959097978509824</v>
+        <v>1.01582860308655</v>
       </c>
       <c r="D20">
-        <v>1.014364854791023</v>
+        <v>1.031538589691836</v>
       </c>
       <c r="E20">
-        <v>1.00944683204538</v>
+        <v>1.029074148523054</v>
       </c>
       <c r="F20">
-        <v>1.010161782895274</v>
+        <v>1.036191243638625</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040990746627769</v>
+        <v>1.051295949545804</v>
       </c>
       <c r="J20">
-        <v>1.023599305567425</v>
+        <v>1.042762705337325</v>
       </c>
       <c r="K20">
-        <v>1.028159732422491</v>
+        <v>1.045048649651705</v>
       </c>
       <c r="L20">
-        <v>1.023325579610286</v>
+        <v>1.0426243291596</v>
       </c>
       <c r="M20">
-        <v>1.024028272427314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.049626226475814</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047888609073654</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043001552261823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9909140952532234</v>
+        <v>1.010350058240434</v>
       </c>
       <c r="D21">
-        <v>1.010910292857681</v>
+        <v>1.027867390137033</v>
       </c>
       <c r="E21">
-        <v>1.005187787104904</v>
+        <v>1.024765140989689</v>
       </c>
       <c r="F21">
-        <v>1.005121299234828</v>
+        <v>1.032152321611508</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039628059769787</v>
+        <v>1.049636857261906</v>
       </c>
       <c r="J21">
-        <v>1.020796668217719</v>
+        <v>1.039421332089029</v>
       </c>
       <c r="K21">
-        <v>1.025687873080145</v>
+        <v>1.042339364597479</v>
       </c>
       <c r="L21">
-        <v>1.020071537332443</v>
+        <v>1.039292044126369</v>
       </c>
       <c r="M21">
-        <v>1.020006292289514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.046549129906064</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.045412887970643</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041089228918559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9877056369723501</v>
+        <v>1.006862159890089</v>
       </c>
       <c r="D22">
-        <v>1.008696791039155</v>
+        <v>1.025534839967388</v>
       </c>
       <c r="E22">
-        <v>1.002460209275244</v>
+        <v>1.022047293743927</v>
       </c>
       <c r="F22">
-        <v>1.001892969458695</v>
+        <v>1.029632040532489</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038744929885377</v>
+        <v>1.048580880928434</v>
       </c>
       <c r="J22">
-        <v>1.01899508960911</v>
+        <v>1.037304092821463</v>
       </c>
       <c r="K22">
-        <v>1.024097909351771</v>
+        <v>1.04061686929249</v>
       </c>
       <c r="L22">
-        <v>1.017983085980684</v>
+        <v>1.037194286787358</v>
       </c>
       <c r="M22">
-        <v>1.01742701929637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.044638482170311</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043900747047139</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039857979279648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.989413088814896</v>
+        <v>1.008701583881343</v>
       </c>
       <c r="D23">
-        <v>1.009874245424167</v>
+        <v>1.026756823865124</v>
       </c>
       <c r="E23">
-        <v>1.003911002512026</v>
+        <v>1.023477645477841</v>
       </c>
       <c r="F23">
-        <v>1.003610149346135</v>
+        <v>1.030960317700033</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039215642216928</v>
+        <v>1.04913184164218</v>
       </c>
       <c r="J23">
-        <v>1.019953977175434</v>
+        <v>1.038414844876004</v>
       </c>
       <c r="K23">
-        <v>1.024944256480693</v>
+        <v>1.041515242172053</v>
       </c>
       <c r="L23">
-        <v>1.019094352501246</v>
+        <v>1.038295538998556</v>
       </c>
       <c r="M23">
-        <v>1.018799264147749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.045643214812505</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044695921406731</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040483597718573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9959924497238132</v>
+        <v>1.015812846763073</v>
       </c>
       <c r="D24">
-        <v>1.014422090232547</v>
+        <v>1.031505567240447</v>
       </c>
       <c r="E24">
-        <v>1.009517422007032</v>
+        <v>1.029027752445666</v>
       </c>
       <c r="F24">
-        <v>1.010245321442732</v>
+        <v>1.036116506443507</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041013156433439</v>
+        <v>1.051257150194953</v>
       </c>
       <c r="J24">
-        <v>1.023645644559458</v>
+        <v>1.042715493998007</v>
       </c>
       <c r="K24">
-        <v>1.028200584527054</v>
+        <v>1.045001112605723</v>
       </c>
       <c r="L24">
-        <v>1.023379437386611</v>
+        <v>1.042563588641175</v>
       </c>
       <c r="M24">
-        <v>1.024094875286185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.049537732883705</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047778147068033</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04294079641346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003352050534387</v>
+        <v>1.023758697777817</v>
       </c>
       <c r="D25">
-        <v>1.019528851077743</v>
+        <v>1.036833629373891</v>
       </c>
       <c r="E25">
-        <v>1.01581984611002</v>
+        <v>1.035260880041665</v>
       </c>
       <c r="F25">
-        <v>1.017703793530516</v>
+        <v>1.041918672708723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042989117893724</v>
+        <v>1.053597987173458</v>
       </c>
       <c r="J25">
-        <v>1.027767129023038</v>
+        <v>1.047512114217497</v>
       </c>
       <c r="K25">
-        <v>1.031831386345076</v>
+        <v>1.048885845913937</v>
       </c>
       <c r="L25">
-        <v>1.028177444574088</v>
+        <v>1.04733540953381</v>
       </c>
       <c r="M25">
-        <v>1.030033359504976</v>
+        <v>1.053899328641577</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051230015259323</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045684612016914</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029825251371618</v>
+        <v>1.027764375017977</v>
       </c>
       <c r="D2">
-        <v>1.04089543914389</v>
+        <v>1.038269244300942</v>
       </c>
       <c r="E2">
-        <v>1.040037774787495</v>
+        <v>1.038440991149181</v>
       </c>
       <c r="F2">
-        <v>1.04637990011394</v>
+        <v>1.045082028483821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055338257800959</v>
+        <v>1.054120099036111</v>
       </c>
       <c r="J2">
-        <v>1.051149072856441</v>
+        <v>1.049145225198698</v>
       </c>
       <c r="K2">
-        <v>1.051812985244159</v>
+        <v>1.049219980982106</v>
       </c>
       <c r="L2">
-        <v>1.050966137288101</v>
+        <v>1.049389550841364</v>
       </c>
       <c r="M2">
-        <v>1.057228801448373</v>
+        <v>1.055947093180524</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053865026661156</v>
+        <v>1.052850658182392</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047706492693292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045881728559329</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024880989745739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034136101899279</v>
+        <v>1.031873649883515</v>
       </c>
       <c r="D3">
-        <v>1.043801930120345</v>
+        <v>1.040924668725041</v>
       </c>
       <c r="E3">
-        <v>1.043447774418707</v>
+        <v>1.041678113633891</v>
       </c>
       <c r="F3">
-        <v>1.049565929464057</v>
+        <v>1.048130923338566</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056568413234804</v>
+        <v>1.055213642356583</v>
       </c>
       <c r="J3">
-        <v>1.05373754517421</v>
+        <v>1.051531573846625</v>
       </c>
       <c r="K3">
-        <v>1.05390343050869</v>
+        <v>1.051059377741744</v>
       </c>
       <c r="L3">
-        <v>1.053553350177098</v>
+        <v>1.051804104674003</v>
       </c>
       <c r="M3">
-        <v>1.059601578648062</v>
+        <v>1.058182883330698</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055742884409755</v>
+        <v>1.054620104458242</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049181952980399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047179403247417</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025290355131034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036873332491097</v>
+        <v>1.034484599252148</v>
       </c>
       <c r="D4">
-        <v>1.045651230403786</v>
+        <v>1.04261580723386</v>
       </c>
       <c r="E4">
-        <v>1.045618588683699</v>
+        <v>1.043740654901605</v>
       </c>
       <c r="F4">
-        <v>1.051596251028089</v>
+        <v>1.050075385635206</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057341653394085</v>
+        <v>1.055900918243488</v>
       </c>
       <c r="J4">
-        <v>1.055378637675132</v>
+        <v>1.053045508869007</v>
       </c>
       <c r="K4">
-        <v>1.055228220126535</v>
+        <v>1.052225727866257</v>
       </c>
       <c r="L4">
-        <v>1.05519593128509</v>
+        <v>1.053338344802997</v>
       </c>
       <c r="M4">
-        <v>1.061109418509318</v>
+        <v>1.059604795973315</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056936213076965</v>
+        <v>1.055745430654586</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050119553964082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04800506042684</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025547500652104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038017066400136</v>
+        <v>1.035575835604141</v>
       </c>
       <c r="D5">
-        <v>1.046427284517081</v>
+        <v>1.043325995428854</v>
       </c>
       <c r="E5">
-        <v>1.04652746408303</v>
+        <v>1.044604486459908</v>
       </c>
       <c r="F5">
-        <v>1.052446129974886</v>
+        <v>1.050889557464645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057664939149111</v>
+        <v>1.056188347985445</v>
       </c>
       <c r="J5">
-        <v>1.056065650453713</v>
+        <v>1.053679551283991</v>
       </c>
       <c r="K5">
-        <v>1.055784511930466</v>
+        <v>1.052715976495979</v>
       </c>
       <c r="L5">
-        <v>1.055883637426814</v>
+        <v>1.053980936176815</v>
       </c>
       <c r="M5">
-        <v>1.061740463105871</v>
+        <v>1.06020007174689</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.057435631345912</v>
+        <v>1.056216541677401</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050519959644702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048359485273892</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025655740706688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038214601839191</v>
+        <v>1.035764176076021</v>
       </c>
       <c r="D6">
-        <v>1.04656436136136</v>
+        <v>1.043451625737852</v>
       </c>
       <c r="E6">
-        <v>1.046685131829788</v>
+        <v>1.044754210444184</v>
       </c>
       <c r="F6">
-        <v>1.052592778140129</v>
+        <v>1.051029916799486</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057723235592987</v>
+        <v>1.056240315364843</v>
       </c>
       <c r="J6">
-        <v>1.056186604007192</v>
+        <v>1.05379123316567</v>
       </c>
       <c r="K6">
-        <v>1.05588466069325</v>
+        <v>1.052804649482185</v>
       </c>
       <c r="L6">
-        <v>1.05600416628615</v>
+        <v>1.054093511015989</v>
       </c>
       <c r="M6">
-        <v>1.061850371967068</v>
+        <v>1.060303682663288</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.057522614853078</v>
+        <v>1.056298541028396</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050599393306141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048431679366568</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025676189447932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036905393879646</v>
+        <v>1.034514757219023</v>
       </c>
       <c r="D7">
-        <v>1.045681020242848</v>
+        <v>1.042643492085122</v>
       </c>
       <c r="E7">
-        <v>1.045645752719385</v>
+        <v>1.043766032257241</v>
       </c>
       <c r="F7">
-        <v>1.051619447179889</v>
+        <v>1.050097187809307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057357677326692</v>
+        <v>1.055915520211496</v>
       </c>
       <c r="J7">
-        <v>1.05540419186876</v>
+        <v>1.053069179312672</v>
       </c>
       <c r="K7">
-        <v>1.055254860810348</v>
+        <v>1.052250273228025</v>
       </c>
       <c r="L7">
-        <v>1.055219974400147</v>
+        <v>1.053360612576167</v>
       </c>
       <c r="M7">
-        <v>1.06112956139168</v>
+        <v>1.059623553522309</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056952154464742</v>
+        <v>1.05576027569134</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050158225477886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048044262176464</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025555379264757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031314410346134</v>
+        <v>1.029182888044665</v>
       </c>
       <c r="D8">
-        <v>1.04190874158564</v>
+        <v>1.039195134772953</v>
       </c>
       <c r="E8">
-        <v>1.041216840311059</v>
+        <v>1.039559252471098</v>
       </c>
       <c r="F8">
-        <v>1.047478281651351</v>
+        <v>1.046132202207996</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05577360007405</v>
+        <v>1.054507475932734</v>
       </c>
       <c r="J8">
-        <v>1.052051665303149</v>
+        <v>1.049977143342107</v>
       </c>
       <c r="K8">
-        <v>1.05254944842776</v>
+        <v>1.049869119894904</v>
       </c>
       <c r="L8">
-        <v>1.051866011787111</v>
+        <v>1.05022875968561</v>
       </c>
       <c r="M8">
-        <v>1.058051357141003</v>
+        <v>1.056721541288579</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054516012278363</v>
+        <v>1.053463571415266</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048249840119245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046365612963885</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025029088473044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021016051982249</v>
+        <v>1.019377369769845</v>
       </c>
       <c r="D9">
-        <v>1.034979471134582</v>
+        <v>1.032873624041016</v>
       </c>
       <c r="E9">
-        <v>1.033102363391695</v>
+        <v>1.031867522199463</v>
       </c>
       <c r="F9">
-        <v>1.039911516577386</v>
+        <v>1.038900978237138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052783532073942</v>
+        <v>1.05184888488034</v>
       </c>
       <c r="J9">
-        <v>1.04584789885462</v>
+        <v>1.044263941931093</v>
       </c>
       <c r="K9">
-        <v>1.047529424668937</v>
+        <v>1.045454950868965</v>
       </c>
       <c r="L9">
-        <v>1.045680274543285</v>
+        <v>1.044463895634146</v>
       </c>
       <c r="M9">
-        <v>1.052388622981193</v>
+        <v>1.051392938912002</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.05003440951995</v>
+        <v>1.049246402166454</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044697284663916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043241149404483</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02403026903016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013946603086891</v>
+        <v>1.012651975565956</v>
       </c>
       <c r="D10">
-        <v>1.030263559893327</v>
+        <v>1.028577233422777</v>
       </c>
       <c r="E10">
-        <v>1.027605884982898</v>
+        <v>1.026664595843825</v>
       </c>
       <c r="F10">
-        <v>1.034840923519172</v>
+        <v>1.034063954776067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050725546849006</v>
+        <v>1.05001836873822</v>
       </c>
       <c r="J10">
-        <v>1.041617603782261</v>
+        <v>1.040372458561875</v>
       </c>
       <c r="K10">
-        <v>1.044107081234395</v>
+        <v>1.042448999974778</v>
       </c>
       <c r="L10">
-        <v>1.041493975447771</v>
+        <v>1.040568543076605</v>
       </c>
       <c r="M10">
-        <v>1.04860837330055</v>
+        <v>1.047844255974963</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047093534459176</v>
+        <v>1.046488828997461</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042294159899153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041134126262304</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023346695655482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011654175858958</v>
+        <v>1.01042610671086</v>
       </c>
       <c r="D11">
-        <v>1.028863394583971</v>
+        <v>1.027268383181232</v>
       </c>
       <c r="E11">
-        <v>1.026153490111715</v>
+        <v>1.025259225292569</v>
       </c>
       <c r="F11">
-        <v>1.033852734871044</v>
+        <v>1.033115690006168</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05031165304151</v>
+        <v>1.049640149035935</v>
       </c>
       <c r="J11">
-        <v>1.040550037754981</v>
+        <v>1.039371488988342</v>
       </c>
       <c r="K11">
-        <v>1.043260772022264</v>
+        <v>1.041693749730422</v>
       </c>
       <c r="L11">
-        <v>1.040598487686833</v>
+        <v>1.039720009091784</v>
       </c>
       <c r="M11">
-        <v>1.048163281190218</v>
+        <v>1.047438995042721</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047173172126332</v>
+        <v>1.046600270833145</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041728337972533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040635918245836</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023242666626784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011109308210374</v>
+        <v>1.009871043730955</v>
       </c>
       <c r="D12">
-        <v>1.028590957170889</v>
+        <v>1.026992100278981</v>
       </c>
       <c r="E12">
-        <v>1.02597251817877</v>
+        <v>1.025061821047542</v>
       </c>
       <c r="F12">
-        <v>1.033942675610921</v>
+        <v>1.033194487159379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050344913376419</v>
+        <v>1.049660361116063</v>
       </c>
       <c r="J12">
-        <v>1.040450831924548</v>
+        <v>1.039263439831166</v>
       </c>
       <c r="K12">
-        <v>1.043190160485205</v>
+        <v>1.041619822394865</v>
       </c>
       <c r="L12">
-        <v>1.040618486864591</v>
+        <v>1.03972412756002</v>
       </c>
       <c r="M12">
-        <v>1.048447251985772</v>
+        <v>1.047712216296591</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047721178877846</v>
+        <v>1.047139968117871</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041678414172133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040583651043891</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023277685296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01189563625951</v>
+        <v>1.010585602349589</v>
       </c>
       <c r="D13">
-        <v>1.029191630849277</v>
+        <v>1.027513586093018</v>
       </c>
       <c r="E13">
-        <v>1.026778943132465</v>
+        <v>1.025800380975277</v>
       </c>
       <c r="F13">
-        <v>1.03489499221685</v>
+        <v>1.034094491576832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050743201689594</v>
+        <v>1.050006051937149</v>
       </c>
       <c r="J13">
-        <v>1.041114133550126</v>
+        <v>1.039857611312943</v>
       </c>
       <c r="K13">
-        <v>1.043737918687801</v>
+        <v>1.042089663198992</v>
       </c>
       <c r="L13">
-        <v>1.041368101671793</v>
+        <v>1.04040700208823</v>
       </c>
       <c r="M13">
-        <v>1.049340967160963</v>
+        <v>1.048554459557814</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048702179258317</v>
+        <v>1.048080422138808</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042063220945596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040913118880584</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023431677270728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013047904900757</v>
+        <v>1.011660320038855</v>
       </c>
       <c r="D14">
-        <v>1.030008104960587</v>
+        <v>1.028240985373167</v>
       </c>
       <c r="E14">
-        <v>1.027788344009308</v>
+        <v>1.026739552467523</v>
       </c>
       <c r="F14">
-        <v>1.035949695556047</v>
+        <v>1.035094385489592</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051186772258723</v>
+        <v>1.050395245269465</v>
       </c>
       <c r="J14">
-        <v>1.041922666234128</v>
+        <v>1.040590907755108</v>
       </c>
       <c r="K14">
-        <v>1.044401721412288</v>
+        <v>1.042665568744102</v>
       </c>
       <c r="L14">
-        <v>1.042220881650127</v>
+        <v>1.041190555472514</v>
       </c>
       <c r="M14">
-        <v>1.050240193725912</v>
+        <v>1.049399633506759</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049585028791653</v>
+        <v>1.04892062993973</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042533954211028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041321839279458</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023593611422688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013627306110323</v>
+        <v>1.012206830282417</v>
       </c>
       <c r="D15">
-        <v>1.030406480061834</v>
+        <v>1.028600520993312</v>
       </c>
       <c r="E15">
-        <v>1.028261626351403</v>
+        <v>1.027183971202906</v>
       </c>
       <c r="F15">
-        <v>1.036412588342993</v>
+        <v>1.035534549397222</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051381027796303</v>
+        <v>1.050567155681987</v>
       </c>
       <c r="J15">
-        <v>1.042296231118362</v>
+        <v>1.040932390123654</v>
       </c>
       <c r="K15">
-        <v>1.04470801241067</v>
+        <v>1.04293345551645</v>
       </c>
       <c r="L15">
-        <v>1.042600469521359</v>
+        <v>1.041541636912466</v>
       </c>
       <c r="M15">
-        <v>1.050610702941309</v>
+        <v>1.04974768599009</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049915157623666</v>
+        <v>1.049233026144878</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042756321506018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041517625173965</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023662069793148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016470448860089</v>
+        <v>1.014918036023976</v>
       </c>
       <c r="D16">
-        <v>1.032287626450161</v>
+        <v>1.030319227272287</v>
       </c>
       <c r="E16">
-        <v>1.030437484747892</v>
+        <v>1.029249307517369</v>
       </c>
       <c r="F16">
-        <v>1.038406086452896</v>
+        <v>1.037439873514052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052189242131345</v>
+        <v>1.051289787481539</v>
       </c>
       <c r="J16">
-        <v>1.043970750405266</v>
+        <v>1.042477091101438</v>
       </c>
       <c r="K16">
-        <v>1.04606236222862</v>
+        <v>1.044126682336071</v>
       </c>
       <c r="L16">
-        <v>1.044242969556372</v>
+        <v>1.043074614735943</v>
       </c>
       <c r="M16">
-        <v>1.05208013741883</v>
+        <v>1.051129722878999</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051038172765896</v>
+        <v>1.050286940482811</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043717008625741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042364691870728</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023928074603893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018050163115061</v>
+        <v>1.016437124204962</v>
       </c>
       <c r="D17">
-        <v>1.033305820806733</v>
+        <v>1.03125941324694</v>
       </c>
       <c r="E17">
-        <v>1.031579947804291</v>
+        <v>1.030343576556387</v>
       </c>
       <c r="F17">
-        <v>1.039379476277609</v>
+        <v>1.038374172978834</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052575549670393</v>
+        <v>1.051638749208101</v>
       </c>
       <c r="J17">
-        <v>1.044831945651798</v>
+        <v>1.043277979820998</v>
       </c>
       <c r="K17">
-        <v>1.0467540357926</v>
+        <v>1.044740686077546</v>
       </c>
       <c r="L17">
-        <v>1.045056031570344</v>
+        <v>1.043839698517269</v>
       </c>
       <c r="M17">
-        <v>1.052730558846595</v>
+        <v>1.051741232221685</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051424279304538</v>
+        <v>1.050642212920682</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04420859723934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.042801613399595</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024046782026913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018665881884306</v>
+        <v>1.017049820054487</v>
       </c>
       <c r="D18">
-        <v>1.033649134458543</v>
+        <v>1.031592494632886</v>
       </c>
       <c r="E18">
-        <v>1.031899942832273</v>
+        <v>1.030666484895143</v>
       </c>
       <c r="F18">
-        <v>1.03950711883235</v>
+        <v>1.038502742759819</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052615486702065</v>
+        <v>1.051681131154613</v>
       </c>
       <c r="J18">
-        <v>1.045041799785286</v>
+        <v>1.043483827449672</v>
       </c>
       <c r="K18">
-        <v>1.046911262485837</v>
+        <v>1.044887307148367</v>
       </c>
       <c r="L18">
-        <v>1.045189858712792</v>
+        <v>1.043976068314088</v>
       </c>
       <c r="M18">
-        <v>1.052677057115022</v>
+        <v>1.051688392875054</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051146439284028</v>
+        <v>1.050364736334191</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044308246115365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.042892622416491</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024040976017695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018439689027218</v>
+        <v>1.016868496136903</v>
       </c>
       <c r="D19">
-        <v>1.0334173060793</v>
+        <v>1.031407658110272</v>
       </c>
       <c r="E19">
-        <v>1.031499266969475</v>
+        <v>1.030310782254614</v>
       </c>
       <c r="F19">
-        <v>1.038883154702324</v>
+        <v>1.037912681080496</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052366911127026</v>
+        <v>1.051467778519914</v>
       </c>
       <c r="J19">
-        <v>1.044693055335692</v>
+        <v>1.043178041983292</v>
       </c>
       <c r="K19">
-        <v>1.046621521257149</v>
+        <v>1.044643657519567</v>
       </c>
       <c r="L19">
-        <v>1.044733814058941</v>
+        <v>1.043564196670254</v>
       </c>
       <c r="M19">
-        <v>1.052001718085765</v>
+        <v>1.051046367922136</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050290220959121</v>
+        <v>1.049534616316763</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044109722554519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042727315947167</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023935985832251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.01582860308655</v>
+        <v>1.014439355025798</v>
       </c>
       <c r="D20">
-        <v>1.031538589691836</v>
+        <v>1.02973837349562</v>
       </c>
       <c r="E20">
-        <v>1.029074148523054</v>
+        <v>1.028051591370923</v>
       </c>
       <c r="F20">
-        <v>1.036191243638625</v>
+        <v>1.035349692816179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051295949545804</v>
+        <v>1.0505259636998</v>
       </c>
       <c r="J20">
-        <v>1.042762705337325</v>
+        <v>1.041424791168433</v>
       </c>
       <c r="K20">
-        <v>1.045048649651705</v>
+        <v>1.04327771637376</v>
       </c>
       <c r="L20">
-        <v>1.0426243291596</v>
+        <v>1.041618491647578</v>
       </c>
       <c r="M20">
-        <v>1.049626226475814</v>
+        <v>1.048798191134655</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047888609073654</v>
+        <v>1.047233312756872</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043001552261823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041765847281537</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023543059609513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010350058240434</v>
+        <v>1.009240575948503</v>
       </c>
       <c r="D21">
-        <v>1.027867390137033</v>
+        <v>1.0264036973326</v>
       </c>
       <c r="E21">
-        <v>1.024765140989689</v>
+        <v>1.023982736696306</v>
       </c>
       <c r="F21">
-        <v>1.032152321611508</v>
+        <v>1.031501507310847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049636857261906</v>
+        <v>1.049051968533068</v>
       </c>
       <c r="J21">
-        <v>1.039421332089029</v>
+        <v>1.038356969248552</v>
       </c>
       <c r="K21">
-        <v>1.042339364597479</v>
+        <v>1.040901534391064</v>
       </c>
       <c r="L21">
-        <v>1.039292044126369</v>
+        <v>1.038523561365779</v>
       </c>
       <c r="M21">
-        <v>1.046549129906064</v>
+        <v>1.045909680077765</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.045412887970643</v>
+        <v>1.044906809549529</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041089228918559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040089375189688</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022984607456023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006862159890089</v>
+        <v>1.005932078231168</v>
       </c>
       <c r="D22">
-        <v>1.025534839967388</v>
+        <v>1.024285409110769</v>
       </c>
       <c r="E22">
-        <v>1.022047293743927</v>
+        <v>1.021418360828368</v>
       </c>
       <c r="F22">
-        <v>1.029632040532489</v>
+        <v>1.029103315755725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048580880928434</v>
+        <v>1.048113554159509</v>
       </c>
       <c r="J22">
-        <v>1.037304092821463</v>
+        <v>1.036414096461961</v>
       </c>
       <c r="K22">
-        <v>1.04061686929249</v>
+        <v>1.039390645671539</v>
       </c>
       <c r="L22">
-        <v>1.037194286787358</v>
+        <v>1.036577130866487</v>
       </c>
       <c r="M22">
-        <v>1.044638482170311</v>
+        <v>1.044119467572833</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043900747047139</v>
+        <v>1.043489983602543</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039857979279648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0390064371008</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022628203139485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008701583881343</v>
+        <v>1.007677348659166</v>
       </c>
       <c r="D23">
-        <v>1.026756823865124</v>
+        <v>1.025394765795307</v>
       </c>
       <c r="E23">
-        <v>1.023477645477841</v>
+        <v>1.02276840695562</v>
       </c>
       <c r="F23">
-        <v>1.030960317700033</v>
+        <v>1.030367665536237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04913184164218</v>
+        <v>1.048603091466351</v>
       </c>
       <c r="J23">
-        <v>1.038414844876004</v>
+        <v>1.037433424664484</v>
       </c>
       <c r="K23">
-        <v>1.041515242172053</v>
+        <v>1.040177827989652</v>
       </c>
       <c r="L23">
-        <v>1.038295538998556</v>
+        <v>1.037599229393713</v>
       </c>
       <c r="M23">
-        <v>1.045643214812505</v>
+        <v>1.045061161947526</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044695921406731</v>
+        <v>1.044235268105756</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040483597718573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03955248972161</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02281178044247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015812846763073</v>
+        <v>1.014429612291272</v>
       </c>
       <c r="D24">
-        <v>1.031505567240447</v>
+        <v>1.02971120127745</v>
       </c>
       <c r="E24">
-        <v>1.029027752445666</v>
+        <v>1.028011463064694</v>
       </c>
       <c r="F24">
-        <v>1.036116506443507</v>
+        <v>1.035279662410456</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051257150194953</v>
+        <v>1.050492083883763</v>
       </c>
       <c r="J24">
-        <v>1.042715493998007</v>
+        <v>1.041383301526846</v>
       </c>
       <c r="K24">
-        <v>1.045001112605723</v>
+        <v>1.043235899284048</v>
       </c>
       <c r="L24">
-        <v>1.042563588641175</v>
+        <v>1.041563896962178</v>
       </c>
       <c r="M24">
-        <v>1.049537732883705</v>
+        <v>1.048714313995371</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047778147068033</v>
+        <v>1.047126472433347</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04294079641346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041706450136316</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023523539526901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023758697777817</v>
+        <v>1.021985874918534</v>
       </c>
       <c r="D25">
-        <v>1.036833629373891</v>
+        <v>1.034563910964687</v>
       </c>
       <c r="E25">
-        <v>1.035260880041665</v>
+        <v>1.033910716202543</v>
       </c>
       <c r="F25">
-        <v>1.041918672708723</v>
+        <v>1.040816604511078</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053597987173458</v>
+        <v>1.052573348774231</v>
       </c>
       <c r="J25">
-        <v>1.047512114217497</v>
+        <v>1.045795323510016</v>
       </c>
       <c r="K25">
-        <v>1.048885845913937</v>
+        <v>1.046648355959068</v>
       </c>
       <c r="L25">
-        <v>1.04733540953381</v>
+        <v>1.046004469294218</v>
       </c>
       <c r="M25">
-        <v>1.053899328641577</v>
+        <v>1.052812694633113</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051230015259323</v>
+        <v>1.050370029360328</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045684612016914</v>
+        <v>1.044116034079033</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024306528061313</v>
       </c>
     </row>
   </sheetData>
